--- a/output.xlsx
+++ b/output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,5752 +478,5775 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B2" t="n">
-        <v>188.6499938964844</v>
+        <v>185.3200073242188</v>
       </c>
       <c r="C2" t="n">
-        <v>189.9900054931641</v>
+        <v>185.5299987792969</v>
       </c>
       <c r="D2" t="n">
-        <v>188</v>
+        <v>182.4400024414062</v>
       </c>
       <c r="E2" t="n">
-        <v>188.8500061035156</v>
+        <v>184.1499938964844</v>
       </c>
       <c r="F2" t="n">
-        <v>188.1691284179688</v>
+        <v>183.2845611572266</v>
       </c>
       <c r="G2" t="n">
-        <v>45155200</v>
+        <v>54630500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="B3" t="n">
-        <v>188.4199981689453</v>
+        <v>183.5500030517578</v>
       </c>
       <c r="C3" t="n">
-        <v>188.6699981689453</v>
+        <v>184.4900054931641</v>
       </c>
       <c r="D3" t="n">
-        <v>186.7899932861328</v>
+        <v>181.3500061035156</v>
       </c>
       <c r="E3" t="n">
-        <v>187.1499938964844</v>
+        <v>183.8600006103516</v>
       </c>
       <c r="F3" t="n">
-        <v>186.4752655029297</v>
+        <v>182.9959259033203</v>
       </c>
       <c r="G3" t="n">
-        <v>41781900</v>
+        <v>65434500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45335</v>
+        <v>45338</v>
       </c>
       <c r="B4" t="n">
-        <v>185.7700042724609</v>
+        <v>183.4199981689453</v>
       </c>
       <c r="C4" t="n">
-        <v>186.2100067138672</v>
+        <v>184.8500061035156</v>
       </c>
       <c r="D4" t="n">
-        <v>183.5099945068359</v>
+        <v>181.6699981689453</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0399932861328</v>
+        <v>182.3099975585938</v>
       </c>
       <c r="F4" t="n">
-        <v>184.3728637695312</v>
+        <v>181.4531860351562</v>
       </c>
       <c r="G4" t="n">
-        <v>56529500</v>
+        <v>49701400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B5" t="n">
-        <v>185.3200073242188</v>
+        <v>181.7899932861328</v>
       </c>
       <c r="C5" t="n">
-        <v>185.5299987792969</v>
+        <v>182.4299926757812</v>
       </c>
       <c r="D5" t="n">
-        <v>182.4400024414062</v>
+        <v>180</v>
       </c>
       <c r="E5" t="n">
-        <v>184.1499938964844</v>
+        <v>181.5599975585938</v>
       </c>
       <c r="F5" t="n">
-        <v>183.4860687255859</v>
+        <v>180.7067260742188</v>
       </c>
       <c r="G5" t="n">
-        <v>54630500</v>
+        <v>53665600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B6" t="n">
-        <v>183.5500030517578</v>
+        <v>181.9400024414062</v>
       </c>
       <c r="C6" t="n">
-        <v>184.4900054931641</v>
+        <v>182.8899993896484</v>
       </c>
       <c r="D6" t="n">
-        <v>181.3500061035156</v>
+        <v>180.6600036621094</v>
       </c>
       <c r="E6" t="n">
-        <v>183.8600006103516</v>
+        <v>182.3200073242188</v>
       </c>
       <c r="F6" t="n">
-        <v>183.1971282958984</v>
+        <v>181.4631652832031</v>
       </c>
       <c r="G6" t="n">
-        <v>65434500</v>
+        <v>41529700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B7" t="n">
-        <v>183.4199981689453</v>
+        <v>183.4799957275391</v>
       </c>
       <c r="C7" t="n">
-        <v>184.8500061035156</v>
+        <v>184.9600067138672</v>
       </c>
       <c r="D7" t="n">
-        <v>181.6699981689453</v>
+        <v>182.4600067138672</v>
       </c>
       <c r="E7" t="n">
-        <v>182.3099975585938</v>
+        <v>184.3699951171875</v>
       </c>
       <c r="F7" t="n">
-        <v>181.6526947021484</v>
+        <v>183.5035247802734</v>
       </c>
       <c r="G7" t="n">
-        <v>49701400</v>
+        <v>52292200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45342</v>
+        <v>45345</v>
       </c>
       <c r="B8" t="n">
-        <v>181.7899932861328</v>
+        <v>185.0099945068359</v>
       </c>
       <c r="C8" t="n">
-        <v>182.4299926757812</v>
+        <v>185.0399932861328</v>
       </c>
       <c r="D8" t="n">
-        <v>180</v>
+        <v>182.2299957275391</v>
       </c>
       <c r="E8" t="n">
-        <v>181.5599975585938</v>
+        <v>182.5200042724609</v>
       </c>
       <c r="F8" t="n">
-        <v>180.9054107666016</v>
+        <v>181.6622314453125</v>
       </c>
       <c r="G8" t="n">
-        <v>53665600</v>
+        <v>45119700</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45343</v>
+        <v>45348</v>
       </c>
       <c r="B9" t="n">
-        <v>181.9400024414062</v>
+        <v>182.2400054931641</v>
       </c>
       <c r="C9" t="n">
-        <v>182.8899993896484</v>
+        <v>182.7599945068359</v>
       </c>
       <c r="D9" t="n">
-        <v>180.6600036621094</v>
+        <v>180.6499938964844</v>
       </c>
       <c r="E9" t="n">
-        <v>182.3200073242188</v>
+        <v>181.1600036621094</v>
       </c>
       <c r="F9" t="n">
-        <v>181.6626892089844</v>
+        <v>180.3086090087891</v>
       </c>
       <c r="G9" t="n">
-        <v>41529700</v>
+        <v>40867400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="B10" t="n">
-        <v>183.4799957275391</v>
+        <v>181.1000061035156</v>
       </c>
       <c r="C10" t="n">
-        <v>184.9600067138672</v>
+        <v>183.9199981689453</v>
       </c>
       <c r="D10" t="n">
-        <v>182.4600067138672</v>
+        <v>179.5599975585938</v>
       </c>
       <c r="E10" t="n">
-        <v>184.3699951171875</v>
+        <v>182.6300048828125</v>
       </c>
       <c r="F10" t="n">
-        <v>183.7052917480469</v>
+        <v>181.7716979980469</v>
       </c>
       <c r="G10" t="n">
-        <v>52292200</v>
+        <v>54318900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="B11" t="n">
-        <v>185.0099945068359</v>
+        <v>182.5099945068359</v>
       </c>
       <c r="C11" t="n">
-        <v>185.0399932861328</v>
+        <v>183.1199951171875</v>
       </c>
       <c r="D11" t="n">
-        <v>182.2299957275391</v>
+        <v>180.1300048828125</v>
       </c>
       <c r="E11" t="n">
-        <v>182.5200042724609</v>
+        <v>181.4199981689453</v>
       </c>
       <c r="F11" t="n">
-        <v>181.8619537353516</v>
+        <v>180.5673980712891</v>
       </c>
       <c r="G11" t="n">
-        <v>45119700</v>
+        <v>48953900</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45348</v>
+        <v>45351</v>
       </c>
       <c r="B12" t="n">
-        <v>182.2400054931641</v>
+        <v>181.2700042724609</v>
       </c>
       <c r="C12" t="n">
-        <v>182.7599945068359</v>
+        <v>182.5700073242188</v>
       </c>
       <c r="D12" t="n">
-        <v>180.6499938964844</v>
+        <v>179.5299987792969</v>
       </c>
       <c r="E12" t="n">
-        <v>181.1600036621094</v>
+        <v>180.75</v>
       </c>
       <c r="F12" t="n">
-        <v>180.5068511962891</v>
+        <v>179.9005432128906</v>
       </c>
       <c r="G12" t="n">
-        <v>40867400</v>
+        <v>136682600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="B13" t="n">
-        <v>181.1000061035156</v>
+        <v>179.5500030517578</v>
       </c>
       <c r="C13" t="n">
-        <v>183.9199981689453</v>
+        <v>180.5299987792969</v>
       </c>
       <c r="D13" t="n">
-        <v>179.5599975585938</v>
+        <v>177.3800048828125</v>
       </c>
       <c r="E13" t="n">
-        <v>182.6300048828125</v>
+        <v>179.6600036621094</v>
       </c>
       <c r="F13" t="n">
-        <v>181.9715576171875</v>
+        <v>178.8156585693359</v>
       </c>
       <c r="G13" t="n">
-        <v>54318900</v>
+        <v>73488000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="B14" t="n">
-        <v>182.5099945068359</v>
+        <v>176.1499938964844</v>
       </c>
       <c r="C14" t="n">
-        <v>183.1199951171875</v>
+        <v>176.8999938964844</v>
       </c>
       <c r="D14" t="n">
-        <v>180.1300048828125</v>
+        <v>173.7899932861328</v>
       </c>
       <c r="E14" t="n">
-        <v>181.4199981689453</v>
+        <v>175.1000061035156</v>
       </c>
       <c r="F14" t="n">
-        <v>180.7659301757812</v>
+        <v>174.2771148681641</v>
       </c>
       <c r="G14" t="n">
-        <v>48953900</v>
+        <v>81510100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="B15" t="n">
-        <v>181.2700042724609</v>
+        <v>170.7599945068359</v>
       </c>
       <c r="C15" t="n">
-        <v>182.5700073242188</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="D15" t="n">
-        <v>179.5299987792969</v>
+        <v>169.6199951171875</v>
       </c>
       <c r="E15" t="n">
-        <v>180.75</v>
+        <v>170.1199951171875</v>
       </c>
       <c r="F15" t="n">
-        <v>180.0983428955078</v>
+        <v>169.3204803466797</v>
       </c>
       <c r="G15" t="n">
-        <v>136682600</v>
+        <v>95132400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B16" t="n">
-        <v>179.5500030517578</v>
+        <v>171.0599975585938</v>
       </c>
       <c r="C16" t="n">
-        <v>180.5299987792969</v>
+        <v>171.2400054931641</v>
       </c>
       <c r="D16" t="n">
-        <v>177.3800048828125</v>
+        <v>168.6799926757812</v>
       </c>
       <c r="E16" t="n">
-        <v>179.6600036621094</v>
+        <v>169.1199951171875</v>
       </c>
       <c r="F16" t="n">
-        <v>179.0122680664062</v>
+        <v>168.3251800537109</v>
       </c>
       <c r="G16" t="n">
-        <v>73488000</v>
+        <v>68587700</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="B17" t="n">
-        <v>176.1499938964844</v>
+        <v>169.1499938964844</v>
       </c>
       <c r="C17" t="n">
-        <v>176.8999938964844</v>
+        <v>170.7299957275391</v>
       </c>
       <c r="D17" t="n">
-        <v>173.7899932861328</v>
+        <v>168.4900054931641</v>
       </c>
       <c r="E17" t="n">
-        <v>175.1000061035156</v>
+        <v>169</v>
       </c>
       <c r="F17" t="n">
-        <v>174.4687194824219</v>
+        <v>168.2057495117188</v>
       </c>
       <c r="G17" t="n">
-        <v>81510100</v>
+        <v>71765100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B18" t="n">
-        <v>170.7599945068359</v>
+        <v>169</v>
       </c>
       <c r="C18" t="n">
-        <v>172.0399932861328</v>
+        <v>173.6999969482422</v>
       </c>
       <c r="D18" t="n">
-        <v>169.6199951171875</v>
+        <v>168.9400024414062</v>
       </c>
       <c r="E18" t="n">
-        <v>170.1199951171875</v>
+        <v>170.7299957275391</v>
       </c>
       <c r="F18" t="n">
-        <v>169.5066528320312</v>
+        <v>169.9276275634766</v>
       </c>
       <c r="G18" t="n">
-        <v>95132400</v>
+        <v>76114600</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45357</v>
+        <v>45362</v>
       </c>
       <c r="B19" t="n">
-        <v>171.0599975585938</v>
+        <v>172.9400024414062</v>
       </c>
       <c r="C19" t="n">
-        <v>171.2400054931641</v>
+        <v>174.3800048828125</v>
       </c>
       <c r="D19" t="n">
-        <v>168.6799926757812</v>
+        <v>172.0500030517578</v>
       </c>
       <c r="E19" t="n">
-        <v>169.1199951171875</v>
+        <v>172.75</v>
       </c>
       <c r="F19" t="n">
-        <v>168.51025390625</v>
+        <v>171.9381408691406</v>
       </c>
       <c r="G19" t="n">
-        <v>68587700</v>
+        <v>60139500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45358</v>
+        <v>45363</v>
       </c>
       <c r="B20" t="n">
-        <v>169.1499938964844</v>
+        <v>173.1499938964844</v>
       </c>
       <c r="C20" t="n">
-        <v>170.7299957275391</v>
+        <v>174.0299987792969</v>
       </c>
       <c r="D20" t="n">
-        <v>168.4900054931641</v>
+        <v>171.0099945068359</v>
       </c>
       <c r="E20" t="n">
-        <v>169</v>
+        <v>173.2299957275391</v>
       </c>
       <c r="F20" t="n">
-        <v>168.3906860351562</v>
+        <v>172.4158630371094</v>
       </c>
       <c r="G20" t="n">
-        <v>71765100</v>
+        <v>59825400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45359</v>
+        <v>45364</v>
       </c>
       <c r="B21" t="n">
-        <v>169</v>
+        <v>172.7700042724609</v>
       </c>
       <c r="C21" t="n">
-        <v>173.6999969482422</v>
+        <v>173.1900024414062</v>
       </c>
       <c r="D21" t="n">
-        <v>168.9400024414062</v>
+        <v>170.7599945068359</v>
       </c>
       <c r="E21" t="n">
-        <v>170.7299957275391</v>
+        <v>171.1300048828125</v>
       </c>
       <c r="F21" t="n">
-        <v>170.1144561767578</v>
+        <v>170.3257751464844</v>
       </c>
       <c r="G21" t="n">
-        <v>76114600</v>
+        <v>52488700</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B22" t="n">
-        <v>172.9400024414062</v>
+        <v>172.9100036621094</v>
       </c>
       <c r="C22" t="n">
-        <v>174.3800048828125</v>
+        <v>174.3099975585938</v>
       </c>
       <c r="D22" t="n">
         <v>172.0500030517578</v>
       </c>
       <c r="E22" t="n">
-        <v>172.75</v>
+        <v>173</v>
       </c>
       <c r="F22" t="n">
-        <v>172.1271820068359</v>
+        <v>172.1869659423828</v>
       </c>
       <c r="G22" t="n">
-        <v>60139500</v>
+        <v>72913500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="B23" t="n">
-        <v>173.1499938964844</v>
+        <v>171.1699981689453</v>
       </c>
       <c r="C23" t="n">
-        <v>174.0299987792969</v>
+        <v>172.6199951171875</v>
       </c>
       <c r="D23" t="n">
-        <v>171.0099945068359</v>
+        <v>170.2899932861328</v>
       </c>
       <c r="E23" t="n">
-        <v>173.2299957275391</v>
+        <v>172.6199951171875</v>
       </c>
       <c r="F23" t="n">
-        <v>172.6054382324219</v>
+        <v>171.8087310791016</v>
       </c>
       <c r="G23" t="n">
-        <v>59825400</v>
+        <v>121664700</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45364</v>
+        <v>45369</v>
       </c>
       <c r="B24" t="n">
-        <v>172.7700042724609</v>
+        <v>175.5700073242188</v>
       </c>
       <c r="C24" t="n">
-        <v>173.1900024414062</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="D24" t="n">
-        <v>170.7599945068359</v>
+        <v>173.5200042724609</v>
       </c>
       <c r="E24" t="n">
-        <v>171.1300048828125</v>
+        <v>173.7200012207031</v>
       </c>
       <c r="F24" t="n">
-        <v>170.5130310058594</v>
+        <v>172.9035797119141</v>
       </c>
       <c r="G24" t="n">
-        <v>52488700</v>
+        <v>75604200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45365</v>
+        <v>45370</v>
       </c>
       <c r="B25" t="n">
-        <v>172.9100036621094</v>
+        <v>174.3399963378906</v>
       </c>
       <c r="C25" t="n">
-        <v>174.3099975585938</v>
+        <v>176.6100006103516</v>
       </c>
       <c r="D25" t="n">
-        <v>172.0500030517578</v>
+        <v>173.0299987792969</v>
       </c>
       <c r="E25" t="n">
-        <v>173</v>
+        <v>176.0800018310547</v>
       </c>
       <c r="F25" t="n">
-        <v>172.3762817382812</v>
+        <v>175.2524871826172</v>
       </c>
       <c r="G25" t="n">
-        <v>72913500</v>
+        <v>55215200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45366</v>
+        <v>45371</v>
       </c>
       <c r="B26" t="n">
-        <v>171.1699981689453</v>
+        <v>175.7200012207031</v>
       </c>
       <c r="C26" t="n">
-        <v>172.6199951171875</v>
+        <v>178.6699981689453</v>
       </c>
       <c r="D26" t="n">
-        <v>170.2899932861328</v>
+        <v>175.0899963378906</v>
       </c>
       <c r="E26" t="n">
-        <v>172.6199951171875</v>
+        <v>178.6699981689453</v>
       </c>
       <c r="F26" t="n">
-        <v>171.9976348876953</v>
+        <v>177.8303070068359</v>
       </c>
       <c r="G26" t="n">
-        <v>121664700</v>
+        <v>53423100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B27" t="n">
-        <v>175.5700073242188</v>
+        <v>177.0500030517578</v>
       </c>
       <c r="C27" t="n">
-        <v>177.7100067138672</v>
+        <v>177.4900054931641</v>
       </c>
       <c r="D27" t="n">
-        <v>173.5200042724609</v>
+        <v>170.8399963378906</v>
       </c>
       <c r="E27" t="n">
-        <v>173.7200012207031</v>
+        <v>171.3699951171875</v>
       </c>
       <c r="F27" t="n">
-        <v>173.0936889648438</v>
+        <v>170.5646057128906</v>
       </c>
       <c r="G27" t="n">
-        <v>75604200</v>
+        <v>106181300</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="B28" t="n">
-        <v>174.3399963378906</v>
+        <v>171.7599945068359</v>
       </c>
       <c r="C28" t="n">
-        <v>176.6100006103516</v>
+        <v>173.0500030517578</v>
       </c>
       <c r="D28" t="n">
-        <v>173.0299987792969</v>
+        <v>170.0599975585938</v>
       </c>
       <c r="E28" t="n">
-        <v>176.0800018310547</v>
+        <v>172.2799987792969</v>
       </c>
       <c r="F28" t="n">
-        <v>175.4451751708984</v>
+        <v>171.4703521728516</v>
       </c>
       <c r="G28" t="n">
-        <v>55215200</v>
+        <v>71106600</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="B29" t="n">
-        <v>175.7200012207031</v>
+        <v>170.5700073242188</v>
       </c>
       <c r="C29" t="n">
-        <v>178.6699981689453</v>
+        <v>171.9400024414062</v>
       </c>
       <c r="D29" t="n">
-        <v>175.0899963378906</v>
+        <v>169.4499969482422</v>
       </c>
       <c r="E29" t="n">
-        <v>178.6699981689453</v>
+        <v>170.8500061035156</v>
       </c>
       <c r="F29" t="n">
-        <v>178.0258331298828</v>
+        <v>170.0470733642578</v>
       </c>
       <c r="G29" t="n">
-        <v>53423100</v>
+        <v>54288300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45372</v>
+        <v>45377</v>
       </c>
       <c r="B30" t="n">
-        <v>177.0500030517578</v>
+        <v>170</v>
       </c>
       <c r="C30" t="n">
-        <v>177.4900054931641</v>
+        <v>171.4199981689453</v>
       </c>
       <c r="D30" t="n">
-        <v>170.8399963378906</v>
+        <v>169.5800018310547</v>
       </c>
       <c r="E30" t="n">
-        <v>171.3699951171875</v>
+        <v>169.7100067138672</v>
       </c>
       <c r="F30" t="n">
-        <v>170.7521362304688</v>
+        <v>168.9124298095703</v>
       </c>
       <c r="G30" t="n">
-        <v>106181300</v>
+        <v>57388400</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45373</v>
+        <v>45378</v>
       </c>
       <c r="B31" t="n">
-        <v>171.7599945068359</v>
+        <v>170.4100036621094</v>
       </c>
       <c r="C31" t="n">
-        <v>173.0500030517578</v>
+        <v>173.6000061035156</v>
       </c>
       <c r="D31" t="n">
-        <v>170.0599975585938</v>
+        <v>170.1100006103516</v>
       </c>
       <c r="E31" t="n">
-        <v>172.2799987792969</v>
+        <v>173.3099975585938</v>
       </c>
       <c r="F31" t="n">
-        <v>171.6588745117188</v>
+        <v>172.4954986572266</v>
       </c>
       <c r="G31" t="n">
-        <v>71106600</v>
+        <v>60273300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="B32" t="n">
-        <v>170.5700073242188</v>
+        <v>171.75</v>
       </c>
       <c r="C32" t="n">
-        <v>171.9400024414062</v>
+        <v>172.2299957275391</v>
       </c>
       <c r="D32" t="n">
-        <v>169.4499969482422</v>
+        <v>170.5099945068359</v>
       </c>
       <c r="E32" t="n">
-        <v>170.8500061035156</v>
+        <v>171.4799957275391</v>
       </c>
       <c r="F32" t="n">
-        <v>170.2340393066406</v>
+        <v>170.6741027832031</v>
       </c>
       <c r="G32" t="n">
-        <v>54288300</v>
+        <v>65672700</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45377</v>
+        <v>45383</v>
       </c>
       <c r="B33" t="n">
-        <v>170</v>
+        <v>171.1900024414062</v>
       </c>
       <c r="C33" t="n">
-        <v>171.4199981689453</v>
+        <v>171.25</v>
       </c>
       <c r="D33" t="n">
-        <v>169.5800018310547</v>
+        <v>169.4799957275391</v>
       </c>
       <c r="E33" t="n">
-        <v>169.7100067138672</v>
+        <v>170.0299987792969</v>
       </c>
       <c r="F33" t="n">
-        <v>169.09814453125</v>
+        <v>169.2309265136719</v>
       </c>
       <c r="G33" t="n">
-        <v>57388400</v>
+        <v>46240500</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="B34" t="n">
-        <v>170.4100036621094</v>
+        <v>169.0800018310547</v>
       </c>
       <c r="C34" t="n">
-        <v>173.6000061035156</v>
+        <v>169.3399963378906</v>
       </c>
       <c r="D34" t="n">
-        <v>170.1100006103516</v>
+        <v>168.2299957275391</v>
       </c>
       <c r="E34" t="n">
-        <v>173.3099975585938</v>
+        <v>168.8399963378906</v>
       </c>
       <c r="F34" t="n">
-        <v>172.6851654052734</v>
+        <v>168.0465087890625</v>
       </c>
       <c r="G34" t="n">
-        <v>60273300</v>
+        <v>49329500</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45379</v>
+        <v>45385</v>
       </c>
       <c r="B35" t="n">
-        <v>171.75</v>
+        <v>168.7899932861328</v>
       </c>
       <c r="C35" t="n">
-        <v>172.2299957275391</v>
+        <v>170.6799926757812</v>
       </c>
       <c r="D35" t="n">
-        <v>170.5099945068359</v>
+        <v>168.5800018310547</v>
       </c>
       <c r="E35" t="n">
-        <v>171.4799957275391</v>
+        <v>169.6499938964844</v>
       </c>
       <c r="F35" t="n">
-        <v>170.8617553710938</v>
+        <v>168.8526916503906</v>
       </c>
       <c r="G35" t="n">
-        <v>65672700</v>
+        <v>47691700</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45383</v>
+        <v>45386</v>
       </c>
       <c r="B36" t="n">
-        <v>171.1900024414062</v>
+        <v>170.2899932861328</v>
       </c>
       <c r="C36" t="n">
-        <v>171.25</v>
+        <v>171.9199981689453</v>
       </c>
       <c r="D36" t="n">
-        <v>169.4799957275391</v>
+        <v>168.8200073242188</v>
       </c>
       <c r="E36" t="n">
-        <v>170.0299987792969</v>
+        <v>168.8200073242188</v>
       </c>
       <c r="F36" t="n">
-        <v>169.4169769287109</v>
+        <v>168.026611328125</v>
       </c>
       <c r="G36" t="n">
-        <v>46240500</v>
+        <v>53704400</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B37" t="n">
-        <v>169.0800018310547</v>
+        <v>169.5899963378906</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3399963378906</v>
+        <v>170.3899993896484</v>
       </c>
       <c r="D37" t="n">
-        <v>168.2299957275391</v>
+        <v>168.9499969482422</v>
       </c>
       <c r="E37" t="n">
-        <v>168.8399963378906</v>
+        <v>169.5800018310547</v>
       </c>
       <c r="F37" t="n">
-        <v>168.2312774658203</v>
+        <v>168.7830352783203</v>
       </c>
       <c r="G37" t="n">
-        <v>49329500</v>
+        <v>42055200</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45385</v>
+        <v>45390</v>
       </c>
       <c r="B38" t="n">
-        <v>168.7899932861328</v>
+        <v>169.0299987792969</v>
       </c>
       <c r="C38" t="n">
-        <v>170.6799926757812</v>
+        <v>169.1999969482422</v>
       </c>
       <c r="D38" t="n">
-        <v>168.5800018310547</v>
+        <v>168.2400054931641</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6499938964844</v>
+        <v>168.4499969482422</v>
       </c>
       <c r="F38" t="n">
-        <v>169.0383453369141</v>
+        <v>167.6583404541016</v>
       </c>
       <c r="G38" t="n">
-        <v>47691700</v>
+        <v>37425500</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45386</v>
+        <v>45391</v>
       </c>
       <c r="B39" t="n">
-        <v>170.2899932861328</v>
+        <v>168.6999969482422</v>
       </c>
       <c r="C39" t="n">
-        <v>171.9199981689453</v>
+        <v>170.0800018310547</v>
       </c>
       <c r="D39" t="n">
-        <v>168.8200073242188</v>
+        <v>168.3500061035156</v>
       </c>
       <c r="E39" t="n">
-        <v>168.8200073242188</v>
+        <v>169.6699981689453</v>
       </c>
       <c r="F39" t="n">
-        <v>168.2113494873047</v>
+        <v>168.8726196289062</v>
       </c>
       <c r="G39" t="n">
-        <v>53704400</v>
+        <v>42451200</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45387</v>
+        <v>45392</v>
       </c>
       <c r="B40" t="n">
-        <v>169.5899963378906</v>
+        <v>168.8000030517578</v>
       </c>
       <c r="C40" t="n">
-        <v>170.3899993896484</v>
+        <v>169.0899963378906</v>
       </c>
       <c r="D40" t="n">
-        <v>168.9499969482422</v>
+        <v>167.1100006103516</v>
       </c>
       <c r="E40" t="n">
-        <v>169.5800018310547</v>
+        <v>167.7799987792969</v>
       </c>
       <c r="F40" t="n">
-        <v>168.9686126708984</v>
+        <v>166.9914855957031</v>
       </c>
       <c r="G40" t="n">
-        <v>42055200</v>
+        <v>49709300</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45390</v>
+        <v>45393</v>
       </c>
       <c r="B41" t="n">
-        <v>169.0299987792969</v>
+        <v>168.3399963378906</v>
       </c>
       <c r="C41" t="n">
-        <v>169.1999969482422</v>
+        <v>175.4600067138672</v>
       </c>
       <c r="D41" t="n">
-        <v>168.2400054931641</v>
+        <v>168.1600036621094</v>
       </c>
       <c r="E41" t="n">
-        <v>168.4499969482422</v>
+        <v>175.0399932861328</v>
       </c>
       <c r="F41" t="n">
-        <v>167.8426818847656</v>
+        <v>174.2173614501953</v>
       </c>
       <c r="G41" t="n">
-        <v>37425500</v>
+        <v>91070300</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B42" t="n">
-        <v>168.6999969482422</v>
+        <v>174.2599945068359</v>
       </c>
       <c r="C42" t="n">
-        <v>170.0800018310547</v>
+        <v>178.3600006103516</v>
       </c>
       <c r="D42" t="n">
-        <v>168.3500061035156</v>
+        <v>174.2100067138672</v>
       </c>
       <c r="E42" t="n">
-        <v>169.6699981689453</v>
+        <v>176.5500030517578</v>
       </c>
       <c r="F42" t="n">
-        <v>169.0582885742188</v>
+        <v>175.7202758789062</v>
       </c>
       <c r="G42" t="n">
-        <v>42451200</v>
+        <v>101593300</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45392</v>
+        <v>45397</v>
       </c>
       <c r="B43" t="n">
-        <v>168.8000030517578</v>
+        <v>175.3600006103516</v>
       </c>
       <c r="C43" t="n">
-        <v>169.0899963378906</v>
+        <v>176.6300048828125</v>
       </c>
       <c r="D43" t="n">
-        <v>167.1100006103516</v>
+        <v>172.5</v>
       </c>
       <c r="E43" t="n">
-        <v>167.7799987792969</v>
+        <v>172.6900024414062</v>
       </c>
       <c r="F43" t="n">
-        <v>167.1751098632812</v>
+        <v>171.87841796875</v>
       </c>
       <c r="G43" t="n">
-        <v>49709300</v>
+        <v>73531800</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45393</v>
+        <v>45398</v>
       </c>
       <c r="B44" t="n">
-        <v>168.3399963378906</v>
+        <v>171.75</v>
       </c>
       <c r="C44" t="n">
-        <v>175.4600067138672</v>
+        <v>173.7599945068359</v>
       </c>
       <c r="D44" t="n">
-        <v>168.1600036621094</v>
+        <v>168.2700042724609</v>
       </c>
       <c r="E44" t="n">
-        <v>175.0399932861328</v>
+        <v>169.3800048828125</v>
       </c>
       <c r="F44" t="n">
-        <v>174.4089202880859</v>
+        <v>168.5839996337891</v>
       </c>
       <c r="G44" t="n">
-        <v>91070300</v>
+        <v>73711200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45394</v>
+        <v>45399</v>
       </c>
       <c r="B45" t="n">
-        <v>174.2599945068359</v>
+        <v>169.6100006103516</v>
       </c>
       <c r="C45" t="n">
-        <v>178.3600006103516</v>
+        <v>170.6499938964844</v>
       </c>
       <c r="D45" t="n">
-        <v>174.2100067138672</v>
+        <v>168</v>
       </c>
       <c r="E45" t="n">
-        <v>176.5500030517578</v>
+        <v>168</v>
       </c>
       <c r="F45" t="n">
-        <v>175.9134826660156</v>
+        <v>167.2104644775391</v>
       </c>
       <c r="G45" t="n">
-        <v>101593300</v>
+        <v>50901200</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45397</v>
+        <v>45400</v>
       </c>
       <c r="B46" t="n">
-        <v>175.3600006103516</v>
+        <v>168.0299987792969</v>
       </c>
       <c r="C46" t="n">
-        <v>176.6300048828125</v>
+        <v>168.6399993896484</v>
       </c>
       <c r="D46" t="n">
-        <v>172.5</v>
+        <v>166.5500030517578</v>
       </c>
       <c r="E46" t="n">
-        <v>172.6900024414062</v>
+        <v>167.0399932861328</v>
       </c>
       <c r="F46" t="n">
-        <v>172.0673828125</v>
+        <v>166.2549591064453</v>
       </c>
       <c r="G46" t="n">
-        <v>73531800</v>
+        <v>43122900</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45398</v>
+        <v>45401</v>
       </c>
       <c r="B47" t="n">
-        <v>171.75</v>
+        <v>166.2100067138672</v>
       </c>
       <c r="C47" t="n">
-        <v>173.7599945068359</v>
+        <v>166.3999938964844</v>
       </c>
       <c r="D47" t="n">
-        <v>168.2700042724609</v>
+        <v>164.0800018310547</v>
       </c>
       <c r="E47" t="n">
-        <v>169.3800048828125</v>
+        <v>165</v>
       </c>
       <c r="F47" t="n">
-        <v>168.7693481445312</v>
+        <v>164.2245483398438</v>
       </c>
       <c r="G47" t="n">
-        <v>73711200</v>
+        <v>67772100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45399</v>
+        <v>45404</v>
       </c>
       <c r="B48" t="n">
-        <v>169.6100006103516</v>
+        <v>165.5200042724609</v>
       </c>
       <c r="C48" t="n">
-        <v>170.6499938964844</v>
+        <v>167.2599945068359</v>
       </c>
       <c r="D48" t="n">
-        <v>168</v>
+        <v>164.7700042724609</v>
       </c>
       <c r="E48" t="n">
-        <v>168</v>
+        <v>165.8399963378906</v>
       </c>
       <c r="F48" t="n">
-        <v>167.3943023681641</v>
+        <v>165.0606231689453</v>
       </c>
       <c r="G48" t="n">
-        <v>50901200</v>
+        <v>48116400</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45400</v>
+        <v>45405</v>
       </c>
       <c r="B49" t="n">
-        <v>168.0299987792969</v>
+        <v>165.3500061035156</v>
       </c>
       <c r="C49" t="n">
-        <v>168.6399993896484</v>
+        <v>167.0500030517578</v>
       </c>
       <c r="D49" t="n">
-        <v>166.5500030517578</v>
+        <v>164.9199981689453</v>
       </c>
       <c r="E49" t="n">
-        <v>167.0399932861328</v>
+        <v>166.8999938964844</v>
       </c>
       <c r="F49" t="n">
-        <v>166.437744140625</v>
+        <v>166.1156311035156</v>
       </c>
       <c r="G49" t="n">
-        <v>43122900</v>
+        <v>49537800</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45401</v>
+        <v>45406</v>
       </c>
       <c r="B50" t="n">
+        <v>166.5399932861328</v>
+      </c>
+      <c r="C50" t="n">
+        <v>169.3000030517578</v>
+      </c>
+      <c r="D50" t="n">
         <v>166.2100067138672</v>
       </c>
-      <c r="C50" t="n">
-        <v>166.3999938964844</v>
-      </c>
-      <c r="D50" t="n">
-        <v>164.0800018310547</v>
-      </c>
       <c r="E50" t="n">
-        <v>165</v>
+        <v>169.0200042724609</v>
       </c>
       <c r="F50" t="n">
-        <v>164.4051208496094</v>
+        <v>168.2256774902344</v>
       </c>
       <c r="G50" t="n">
-        <v>67772100</v>
+        <v>48251800</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45404</v>
+        <v>45407</v>
       </c>
       <c r="B51" t="n">
-        <v>165.5200042724609</v>
+        <v>169.5299987792969</v>
       </c>
       <c r="C51" t="n">
-        <v>167.2599945068359</v>
+        <v>170.6100006103516</v>
       </c>
       <c r="D51" t="n">
-        <v>164.7700042724609</v>
+        <v>168.1499938964844</v>
       </c>
       <c r="E51" t="n">
-        <v>165.8399963378906</v>
+        <v>169.8899993896484</v>
       </c>
       <c r="F51" t="n">
-        <v>165.2420959472656</v>
+        <v>169.0915832519531</v>
       </c>
       <c r="G51" t="n">
-        <v>48116400</v>
+        <v>50558300</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="B52" t="n">
-        <v>165.3500061035156</v>
+        <v>169.8800048828125</v>
       </c>
       <c r="C52" t="n">
-        <v>167.0500030517578</v>
+        <v>171.3399963378906</v>
       </c>
       <c r="D52" t="n">
-        <v>164.9199981689453</v>
+        <v>169.1799926757812</v>
       </c>
       <c r="E52" t="n">
-        <v>166.8999938964844</v>
+        <v>169.3000030517578</v>
       </c>
       <c r="F52" t="n">
-        <v>166.2982635498047</v>
+        <v>168.5043487548828</v>
       </c>
       <c r="G52" t="n">
-        <v>49537800</v>
+        <v>44838400</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="B53" t="n">
-        <v>166.5399932861328</v>
+        <v>173.3699951171875</v>
       </c>
       <c r="C53" t="n">
-        <v>169.3000030517578</v>
+        <v>176.0299987792969</v>
       </c>
       <c r="D53" t="n">
-        <v>166.2100067138672</v>
+        <v>173.1000061035156</v>
       </c>
       <c r="E53" t="n">
-        <v>169.0200042724609</v>
+        <v>173.5</v>
       </c>
       <c r="F53" t="n">
-        <v>168.41064453125</v>
+        <v>172.6846160888672</v>
       </c>
       <c r="G53" t="n">
-        <v>48251800</v>
+        <v>68169400</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45407</v>
+        <v>45412</v>
       </c>
       <c r="B54" t="n">
-        <v>169.5299987792969</v>
+        <v>173.3300018310547</v>
       </c>
       <c r="C54" t="n">
-        <v>170.6100006103516</v>
+        <v>174.9900054931641</v>
       </c>
       <c r="D54" t="n">
-        <v>168.1499938964844</v>
+        <v>170</v>
       </c>
       <c r="E54" t="n">
-        <v>169.8899993896484</v>
+        <v>170.3300018310547</v>
       </c>
       <c r="F54" t="n">
-        <v>169.2774963378906</v>
+        <v>169.5295104980469</v>
       </c>
       <c r="G54" t="n">
-        <v>50558300</v>
+        <v>65934800</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45408</v>
+        <v>45413</v>
       </c>
       <c r="B55" t="n">
-        <v>169.8800048828125</v>
+        <v>169.5800018310547</v>
       </c>
       <c r="C55" t="n">
-        <v>171.3399963378906</v>
+        <v>172.7100067138672</v>
       </c>
       <c r="D55" t="n">
-        <v>169.1799926757812</v>
+        <v>169.1100006103516</v>
       </c>
       <c r="E55" t="n">
         <v>169.3000030517578</v>
       </c>
       <c r="F55" t="n">
-        <v>168.6896209716797</v>
+        <v>168.5043487548828</v>
       </c>
       <c r="G55" t="n">
-        <v>44838400</v>
+        <v>50383100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="B56" t="n">
-        <v>173.3699951171875</v>
+        <v>172.5099945068359</v>
       </c>
       <c r="C56" t="n">
-        <v>176.0299987792969</v>
+        <v>173.4199981689453</v>
       </c>
       <c r="D56" t="n">
-        <v>173.1000061035156</v>
+        <v>170.8899993896484</v>
       </c>
       <c r="E56" t="n">
-        <v>173.5</v>
+        <v>173.0299987792969</v>
       </c>
       <c r="F56" t="n">
-        <v>172.8744659423828</v>
+        <v>172.2168121337891</v>
       </c>
       <c r="G56" t="n">
-        <v>68169400</v>
+        <v>94214900</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45412</v>
+        <v>45415</v>
       </c>
       <c r="B57" t="n">
-        <v>173.3300018310547</v>
+        <v>186.6499938964844</v>
       </c>
       <c r="C57" t="n">
-        <v>174.9900054931641</v>
+        <v>187</v>
       </c>
       <c r="D57" t="n">
-        <v>170</v>
+        <v>182.6600036621094</v>
       </c>
       <c r="E57" t="n">
-        <v>170.3300018310547</v>
+        <v>183.3800048828125</v>
       </c>
       <c r="F57" t="n">
-        <v>169.7159118652344</v>
+        <v>182.5181732177734</v>
       </c>
       <c r="G57" t="n">
-        <v>65934800</v>
+        <v>163224100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45413</v>
+        <v>45418</v>
       </c>
       <c r="B58" t="n">
-        <v>169.5800018310547</v>
+        <v>182.3500061035156</v>
       </c>
       <c r="C58" t="n">
-        <v>172.7100067138672</v>
+        <v>184.1999969482422</v>
       </c>
       <c r="D58" t="n">
-        <v>169.1100006103516</v>
+        <v>180.4199981689453</v>
       </c>
       <c r="E58" t="n">
-        <v>169.3000030517578</v>
+        <v>181.7100067138672</v>
       </c>
       <c r="F58" t="n">
-        <v>168.6896209716797</v>
+        <v>180.8560333251953</v>
       </c>
       <c r="G58" t="n">
-        <v>50383100</v>
+        <v>78569700</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="B59" t="n">
-        <v>172.5099945068359</v>
+        <v>183.4499969482422</v>
       </c>
       <c r="C59" t="n">
-        <v>173.4199981689453</v>
+        <v>184.8999938964844</v>
       </c>
       <c r="D59" t="n">
-        <v>170.8899993896484</v>
+        <v>181.3200073242188</v>
       </c>
       <c r="E59" t="n">
-        <v>173.0299987792969</v>
+        <v>182.3999938964844</v>
       </c>
       <c r="F59" t="n">
-        <v>172.4061737060547</v>
+        <v>181.5427856445312</v>
       </c>
       <c r="G59" t="n">
-        <v>94214900</v>
+        <v>77305800</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="B60" t="n">
-        <v>186.6499938964844</v>
+        <v>182.8500061035156</v>
       </c>
       <c r="C60" t="n">
-        <v>187</v>
+        <v>183.0700073242188</v>
       </c>
       <c r="D60" t="n">
-        <v>182.6600036621094</v>
+        <v>181.4499969482422</v>
       </c>
       <c r="E60" t="n">
-        <v>183.3800048828125</v>
+        <v>182.7400054931641</v>
       </c>
       <c r="F60" t="n">
-        <v>182.7188415527344</v>
+        <v>181.8811798095703</v>
       </c>
       <c r="G60" t="n">
-        <v>163224100</v>
+        <v>45057100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="B61" t="n">
-        <v>182.3500061035156</v>
+        <v>182.5599975585938</v>
       </c>
       <c r="C61" t="n">
-        <v>184.1999969482422</v>
+        <v>184.6600036621094</v>
       </c>
       <c r="D61" t="n">
-        <v>180.4199981689453</v>
+        <v>182.1100006103516</v>
       </c>
       <c r="E61" t="n">
-        <v>181.7100067138672</v>
+        <v>184.5700073242188</v>
       </c>
       <c r="F61" t="n">
-        <v>181.0548858642578</v>
+        <v>183.7026062011719</v>
       </c>
       <c r="G61" t="n">
-        <v>78569700</v>
+        <v>48983000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45419</v>
+        <v>45422</v>
       </c>
       <c r="B62" t="n">
-        <v>183.4499969482422</v>
+        <v>184.8999938964844</v>
       </c>
       <c r="C62" t="n">
-        <v>184.8999938964844</v>
+        <v>185.0899963378906</v>
       </c>
       <c r="D62" t="n">
-        <v>181.3200073242188</v>
+        <v>182.1300048828125</v>
       </c>
       <c r="E62" t="n">
-        <v>182.3999938964844</v>
+        <v>183.0500030517578</v>
       </c>
       <c r="F62" t="n">
-        <v>181.7423858642578</v>
+        <v>182.4368438720703</v>
       </c>
       <c r="G62" t="n">
-        <v>77305800</v>
+        <v>50759500</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45420</v>
+        <v>45425</v>
       </c>
       <c r="B63" t="n">
-        <v>182.8500061035156</v>
+        <v>185.4400024414062</v>
       </c>
       <c r="C63" t="n">
-        <v>183.0700073242188</v>
+        <v>187.1000061035156</v>
       </c>
       <c r="D63" t="n">
-        <v>181.4499969482422</v>
+        <v>184.6199951171875</v>
       </c>
       <c r="E63" t="n">
-        <v>182.7400054931641</v>
+        <v>186.2799987792969</v>
       </c>
       <c r="F63" t="n">
-        <v>182.0811614990234</v>
+        <v>185.6560211181641</v>
       </c>
       <c r="G63" t="n">
-        <v>45057100</v>
+        <v>72044800</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="B64" t="n">
-        <v>182.5599975585938</v>
+        <v>187.5099945068359</v>
       </c>
       <c r="C64" t="n">
-        <v>184.6600036621094</v>
+        <v>188.3000030517578</v>
       </c>
       <c r="D64" t="n">
-        <v>182.1100006103516</v>
+        <v>186.2899932861328</v>
       </c>
       <c r="E64" t="n">
-        <v>184.5700073242188</v>
+        <v>187.4299926757812</v>
       </c>
       <c r="F64" t="n">
-        <v>183.9045867919922</v>
+        <v>186.8021697998047</v>
       </c>
       <c r="G64" t="n">
-        <v>48983000</v>
+        <v>52393600</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45422</v>
+        <v>45427</v>
       </c>
       <c r="B65" t="n">
-        <v>184.8999938964844</v>
+        <v>187.9100036621094</v>
       </c>
       <c r="C65" t="n">
-        <v>185.0899963378906</v>
+        <v>190.6499938964844</v>
       </c>
       <c r="D65" t="n">
-        <v>182.1300048828125</v>
+        <v>187.3699951171875</v>
       </c>
       <c r="E65" t="n">
-        <v>183.0500030517578</v>
+        <v>189.7200012207031</v>
       </c>
       <c r="F65" t="n">
-        <v>182.6374359130859</v>
+        <v>189.0845184326172</v>
       </c>
       <c r="G65" t="n">
-        <v>50759500</v>
+        <v>70400000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45425</v>
+        <v>45428</v>
       </c>
       <c r="B66" t="n">
-        <v>185.4400024414062</v>
+        <v>190.4700012207031</v>
       </c>
       <c r="C66" t="n">
-        <v>187.1000061035156</v>
+        <v>191.1000061035156</v>
       </c>
       <c r="D66" t="n">
-        <v>184.6199951171875</v>
+        <v>189.6600036621094</v>
       </c>
       <c r="E66" t="n">
-        <v>186.2799987792969</v>
+        <v>189.8399963378906</v>
       </c>
       <c r="F66" t="n">
-        <v>185.8601379394531</v>
+        <v>189.2041015625</v>
       </c>
       <c r="G66" t="n">
-        <v>72044800</v>
+        <v>52845200</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="B67" t="n">
-        <v>187.5099945068359</v>
+        <v>189.5099945068359</v>
       </c>
       <c r="C67" t="n">
-        <v>188.3000030517578</v>
+        <v>190.8099975585938</v>
       </c>
       <c r="D67" t="n">
-        <v>186.2899932861328</v>
+        <v>189.1799926757812</v>
       </c>
       <c r="E67" t="n">
-        <v>187.4299926757812</v>
+        <v>189.8699951171875</v>
       </c>
       <c r="F67" t="n">
-        <v>187.0075531005859</v>
+        <v>189.2339935302734</v>
       </c>
       <c r="G67" t="n">
-        <v>52393600</v>
+        <v>41282900</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B68" t="n">
-        <v>187.9100036621094</v>
+        <v>189.3300018310547</v>
       </c>
       <c r="C68" t="n">
-        <v>190.6499938964844</v>
+        <v>191.9199981689453</v>
       </c>
       <c r="D68" t="n">
-        <v>187.3699951171875</v>
+        <v>189.0099945068359</v>
       </c>
       <c r="E68" t="n">
-        <v>189.7200012207031</v>
+        <v>191.0399932861328</v>
       </c>
       <c r="F68" t="n">
-        <v>189.2924041748047</v>
+        <v>190.4000854492188</v>
       </c>
       <c r="G68" t="n">
-        <v>70400000</v>
+        <v>44361300</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B69" t="n">
-        <v>190.4700012207031</v>
+        <v>191.0899963378906</v>
       </c>
       <c r="C69" t="n">
-        <v>191.1000061035156</v>
+        <v>192.7299957275391</v>
       </c>
       <c r="D69" t="n">
-        <v>189.6600036621094</v>
+        <v>190.9199981689453</v>
       </c>
       <c r="E69" t="n">
-        <v>189.8399963378906</v>
+        <v>192.3500061035156</v>
       </c>
       <c r="F69" t="n">
-        <v>189.4121246337891</v>
+        <v>191.7057037353516</v>
       </c>
       <c r="G69" t="n">
-        <v>52845200</v>
+        <v>42309400</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B70" t="n">
-        <v>189.5099945068359</v>
+        <v>192.2700042724609</v>
       </c>
       <c r="C70" t="n">
-        <v>190.8099975585938</v>
+        <v>192.8200073242188</v>
       </c>
       <c r="D70" t="n">
-        <v>189.1799926757812</v>
+        <v>190.2700042724609</v>
       </c>
       <c r="E70" t="n">
-        <v>189.8699951171875</v>
+        <v>190.8999938964844</v>
       </c>
       <c r="F70" t="n">
-        <v>189.4420471191406</v>
+        <v>190.2605438232422</v>
       </c>
       <c r="G70" t="n">
-        <v>41282900</v>
+        <v>34648500</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45432</v>
+        <v>45435</v>
       </c>
       <c r="B71" t="n">
-        <v>189.3300018310547</v>
+        <v>190.9799957275391</v>
       </c>
       <c r="C71" t="n">
-        <v>191.9199981689453</v>
+        <v>191</v>
       </c>
       <c r="D71" t="n">
-        <v>189.0099945068359</v>
+        <v>186.6300048828125</v>
       </c>
       <c r="E71" t="n">
-        <v>191.0399932861328</v>
+        <v>186.8800048828125</v>
       </c>
       <c r="F71" t="n">
-        <v>190.6094207763672</v>
+        <v>186.2540130615234</v>
       </c>
       <c r="G71" t="n">
-        <v>44361300</v>
+        <v>51005900</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45433</v>
+        <v>45436</v>
       </c>
       <c r="B72" t="n">
-        <v>191.0899963378906</v>
+        <v>188.8200073242188</v>
       </c>
       <c r="C72" t="n">
-        <v>192.7299957275391</v>
+        <v>190.5800018310547</v>
       </c>
       <c r="D72" t="n">
-        <v>190.9199981689453</v>
+        <v>188.0399932861328</v>
       </c>
       <c r="E72" t="n">
-        <v>192.3500061035156</v>
+        <v>189.9799957275391</v>
       </c>
       <c r="F72" t="n">
-        <v>191.9164733886719</v>
+        <v>189.3436279296875</v>
       </c>
       <c r="G72" t="n">
-        <v>42309400</v>
+        <v>36294600</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45434</v>
+        <v>45440</v>
       </c>
       <c r="B73" t="n">
-        <v>192.2700042724609</v>
+        <v>191.5099945068359</v>
       </c>
       <c r="C73" t="n">
-        <v>192.8200073242188</v>
+        <v>193</v>
       </c>
       <c r="D73" t="n">
-        <v>190.2700042724609</v>
+        <v>189.1000061035156</v>
       </c>
       <c r="E73" t="n">
-        <v>190.8999938964844</v>
+        <v>189.9900054931641</v>
       </c>
       <c r="F73" t="n">
-        <v>190.4697265625</v>
+        <v>189.3535919189453</v>
       </c>
       <c r="G73" t="n">
-        <v>34648500</v>
+        <v>52280100</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45435</v>
+        <v>45441</v>
       </c>
       <c r="B74" t="n">
-        <v>190.9799957275391</v>
+        <v>189.6100006103516</v>
       </c>
       <c r="C74" t="n">
-        <v>191</v>
+        <v>192.25</v>
       </c>
       <c r="D74" t="n">
-        <v>186.6300048828125</v>
+        <v>189.5099945068359</v>
       </c>
       <c r="E74" t="n">
-        <v>186.8800048828125</v>
+        <v>190.2899932861328</v>
       </c>
       <c r="F74" t="n">
-        <v>186.4588012695312</v>
+        <v>189.652587890625</v>
       </c>
       <c r="G74" t="n">
-        <v>51005900</v>
+        <v>53068000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45436</v>
+        <v>45442</v>
       </c>
       <c r="B75" t="n">
-        <v>188.8200073242188</v>
+        <v>190.7599945068359</v>
       </c>
       <c r="C75" t="n">
-        <v>190.5800018310547</v>
+        <v>192.1799926757812</v>
       </c>
       <c r="D75" t="n">
-        <v>188.0399932861328</v>
+        <v>190.6300048828125</v>
       </c>
       <c r="E75" t="n">
-        <v>189.9799957275391</v>
+        <v>191.2899932861328</v>
       </c>
       <c r="F75" t="n">
-        <v>189.5518035888672</v>
+        <v>190.6492462158203</v>
       </c>
       <c r="G75" t="n">
-        <v>36294600</v>
+        <v>49947900</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45440</v>
+        <v>45443</v>
       </c>
       <c r="B76" t="n">
-        <v>191.5099945068359</v>
+        <v>191.4400024414062</v>
       </c>
       <c r="C76" t="n">
-        <v>193</v>
+        <v>192.5700073242188</v>
       </c>
       <c r="D76" t="n">
-        <v>189.1000061035156</v>
+        <v>189.9100036621094</v>
       </c>
       <c r="E76" t="n">
-        <v>189.9900054931641</v>
+        <v>192.25</v>
       </c>
       <c r="F76" t="n">
-        <v>189.5617828369141</v>
+        <v>191.6060180664062</v>
       </c>
       <c r="G76" t="n">
-        <v>52280100</v>
+        <v>75158300</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45441</v>
+        <v>45446</v>
       </c>
       <c r="B77" t="n">
-        <v>189.6100006103516</v>
+        <v>192.8999938964844</v>
       </c>
       <c r="C77" t="n">
-        <v>192.25</v>
+        <v>194.9900054931641</v>
       </c>
       <c r="D77" t="n">
-        <v>189.5099945068359</v>
+        <v>192.5200042724609</v>
       </c>
       <c r="E77" t="n">
-        <v>190.2899932861328</v>
+        <v>194.0299987792969</v>
       </c>
       <c r="F77" t="n">
-        <v>189.8611145019531</v>
+        <v>193.3800659179688</v>
       </c>
       <c r="G77" t="n">
-        <v>53068000</v>
+        <v>50080500</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45442</v>
+        <v>45447</v>
       </c>
       <c r="B78" t="n">
-        <v>190.7599945068359</v>
+        <v>194.6399993896484</v>
       </c>
       <c r="C78" t="n">
-        <v>192.1799926757812</v>
+        <v>195.3200073242188</v>
       </c>
       <c r="D78" t="n">
-        <v>190.6300048828125</v>
+        <v>193.0299987792969</v>
       </c>
       <c r="E78" t="n">
-        <v>191.2899932861328</v>
+        <v>194.3500061035156</v>
       </c>
       <c r="F78" t="n">
-        <v>190.8588562011719</v>
+        <v>193.6990051269531</v>
       </c>
       <c r="G78" t="n">
-        <v>49947900</v>
+        <v>47471400</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45443</v>
+        <v>45448</v>
       </c>
       <c r="B79" t="n">
-        <v>191.4400024414062</v>
+        <v>195.3999938964844</v>
       </c>
       <c r="C79" t="n">
-        <v>192.5700073242188</v>
+        <v>196.8999938964844</v>
       </c>
       <c r="D79" t="n">
-        <v>189.9100036621094</v>
+        <v>194.8699951171875</v>
       </c>
       <c r="E79" t="n">
-        <v>192.25</v>
+        <v>195.8699951171875</v>
       </c>
       <c r="F79" t="n">
-        <v>191.8166809082031</v>
+        <v>195.2138977050781</v>
       </c>
       <c r="G79" t="n">
-        <v>75158300</v>
+        <v>54156800</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45446</v>
+        <v>45449</v>
       </c>
       <c r="B80" t="n">
-        <v>192.8999938964844</v>
+        <v>195.6900024414062</v>
       </c>
       <c r="C80" t="n">
-        <v>194.9900054931641</v>
+        <v>196.5</v>
       </c>
       <c r="D80" t="n">
-        <v>192.5200042724609</v>
+        <v>194.1699981689453</v>
       </c>
       <c r="E80" t="n">
-        <v>194.0299987792969</v>
+        <v>194.4799957275391</v>
       </c>
       <c r="F80" t="n">
-        <v>193.5926818847656</v>
+        <v>193.8285522460938</v>
       </c>
       <c r="G80" t="n">
-        <v>50080500</v>
+        <v>41181800</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45447</v>
+        <v>45450</v>
       </c>
       <c r="B81" t="n">
-        <v>194.6399993896484</v>
+        <v>194.6499938964844</v>
       </c>
       <c r="C81" t="n">
-        <v>195.3200073242188</v>
+        <v>196.9400024414062</v>
       </c>
       <c r="D81" t="n">
-        <v>193.0299987792969</v>
+        <v>194.1399993896484</v>
       </c>
       <c r="E81" t="n">
-        <v>194.3500061035156</v>
+        <v>196.8899993896484</v>
       </c>
       <c r="F81" t="n">
-        <v>193.9119567871094</v>
+        <v>196.23046875</v>
       </c>
       <c r="G81" t="n">
-        <v>47471400</v>
+        <v>53103900</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45448</v>
+        <v>45453</v>
       </c>
       <c r="B82" t="n">
-        <v>195.3999938964844</v>
+        <v>196.8999938964844</v>
       </c>
       <c r="C82" t="n">
-        <v>196.8999938964844</v>
+        <v>197.3000030517578</v>
       </c>
       <c r="D82" t="n">
-        <v>194.8699951171875</v>
+        <v>192.1499938964844</v>
       </c>
       <c r="E82" t="n">
-        <v>195.8699951171875</v>
+        <v>193.1199951171875</v>
       </c>
       <c r="F82" t="n">
-        <v>195.4285278320312</v>
+        <v>192.4731140136719</v>
       </c>
       <c r="G82" t="n">
-        <v>54156800</v>
+        <v>97262100</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45449</v>
+        <v>45454</v>
       </c>
       <c r="B83" t="n">
-        <v>195.6900024414062</v>
+        <v>193.6499938964844</v>
       </c>
       <c r="C83" t="n">
-        <v>196.5</v>
+        <v>207.1600036621094</v>
       </c>
       <c r="D83" t="n">
-        <v>194.1699981689453</v>
+        <v>193.6300048828125</v>
       </c>
       <c r="E83" t="n">
-        <v>194.4799957275391</v>
+        <v>207.1499938964844</v>
       </c>
       <c r="F83" t="n">
-        <v>194.0416717529297</v>
+        <v>206.4561004638672</v>
       </c>
       <c r="G83" t="n">
-        <v>41181800</v>
+        <v>172373300</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45450</v>
+        <v>45455</v>
       </c>
       <c r="B84" t="n">
-        <v>194.6499938964844</v>
+        <v>207.3699951171875</v>
       </c>
       <c r="C84" t="n">
-        <v>196.9400024414062</v>
+        <v>220.1999969482422</v>
       </c>
       <c r="D84" t="n">
-        <v>194.1399993896484</v>
+        <v>206.8999938964844</v>
       </c>
       <c r="E84" t="n">
-        <v>196.8899993896484</v>
+        <v>213.0700073242188</v>
       </c>
       <c r="F84" t="n">
-        <v>196.4462280273438</v>
+        <v>212.3562927246094</v>
       </c>
       <c r="G84" t="n">
-        <v>53103900</v>
+        <v>198134300</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45453</v>
+        <v>45456</v>
       </c>
       <c r="B85" t="n">
-        <v>196.8999938964844</v>
+        <v>214.7400054931641</v>
       </c>
       <c r="C85" t="n">
-        <v>197.3000030517578</v>
+        <v>216.75</v>
       </c>
       <c r="D85" t="n">
-        <v>192.1499938964844</v>
+        <v>211.6000061035156</v>
       </c>
       <c r="E85" t="n">
-        <v>193.1199951171875</v>
+        <v>214.2400054931641</v>
       </c>
       <c r="F85" t="n">
-        <v>192.6847229003906</v>
+        <v>213.5223846435547</v>
       </c>
       <c r="G85" t="n">
-        <v>97262100</v>
+        <v>97862700</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B86" t="n">
-        <v>193.6499938964844</v>
+        <v>213.8500061035156</v>
       </c>
       <c r="C86" t="n">
-        <v>207.1600036621094</v>
+        <v>215.1699981689453</v>
       </c>
       <c r="D86" t="n">
-        <v>193.6300048828125</v>
+        <v>211.3000030517578</v>
       </c>
       <c r="E86" t="n">
-        <v>207.1499938964844</v>
+        <v>212.4900054931641</v>
       </c>
       <c r="F86" t="n">
-        <v>206.68310546875</v>
+        <v>211.7782440185547</v>
       </c>
       <c r="G86" t="n">
-        <v>172373300</v>
+        <v>70122700</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45455</v>
+        <v>45460</v>
       </c>
       <c r="B87" t="n">
-        <v>207.3699951171875</v>
+        <v>213.3699951171875</v>
       </c>
       <c r="C87" t="n">
-        <v>220.1999969482422</v>
+        <v>218.9499969482422</v>
       </c>
       <c r="D87" t="n">
-        <v>206.8999938964844</v>
+        <v>212.7200012207031</v>
       </c>
       <c r="E87" t="n">
-        <v>213.0700073242188</v>
+        <v>216.6699981689453</v>
       </c>
       <c r="F87" t="n">
-        <v>212.5897827148438</v>
+        <v>215.9442291259766</v>
       </c>
       <c r="G87" t="n">
-        <v>198134300</v>
+        <v>93728300</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45456</v>
+        <v>45461</v>
       </c>
       <c r="B88" t="n">
-        <v>214.7400054931641</v>
+        <v>217.5899963378906</v>
       </c>
       <c r="C88" t="n">
-        <v>216.75</v>
+        <v>218.6300048828125</v>
       </c>
       <c r="D88" t="n">
-        <v>211.6000061035156</v>
+        <v>213</v>
       </c>
       <c r="E88" t="n">
-        <v>214.2400054931641</v>
+        <v>214.2899932861328</v>
       </c>
       <c r="F88" t="n">
-        <v>213.7571411132812</v>
+        <v>213.5721893310547</v>
       </c>
       <c r="G88" t="n">
-        <v>97862700</v>
+        <v>79943300</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="B89" t="n">
-        <v>213.8500061035156</v>
+        <v>213.9299926757812</v>
       </c>
       <c r="C89" t="n">
-        <v>215.1699981689453</v>
+        <v>214.2400054931641</v>
       </c>
       <c r="D89" t="n">
-        <v>211.3000030517578</v>
+        <v>208.8500061035156</v>
       </c>
       <c r="E89" t="n">
-        <v>212.4900054931641</v>
+        <v>209.6799926757812</v>
       </c>
       <c r="F89" t="n">
-        <v>212.0110778808594</v>
+        <v>208.9776458740234</v>
       </c>
       <c r="G89" t="n">
-        <v>70122700</v>
+        <v>86172500</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="B90" t="n">
-        <v>213.3699951171875</v>
+        <v>210.3899993896484</v>
       </c>
       <c r="C90" t="n">
-        <v>218.9499969482422</v>
+        <v>211.8899993896484</v>
       </c>
       <c r="D90" t="n">
-        <v>212.7200012207031</v>
+        <v>207.1100006103516</v>
       </c>
       <c r="E90" t="n">
-        <v>216.6699981689453</v>
+        <v>207.4900054931641</v>
       </c>
       <c r="F90" t="n">
-        <v>216.1816558837891</v>
+        <v>206.7949829101562</v>
       </c>
       <c r="G90" t="n">
-        <v>93728300</v>
+        <v>246421400</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45461</v>
+        <v>45467</v>
       </c>
       <c r="B91" t="n">
-        <v>217.5899963378906</v>
+        <v>207.7200012207031</v>
       </c>
       <c r="C91" t="n">
-        <v>218.6300048828125</v>
+        <v>212.6999969482422</v>
       </c>
       <c r="D91" t="n">
-        <v>213</v>
+        <v>206.5899963378906</v>
       </c>
       <c r="E91" t="n">
-        <v>214.2899932861328</v>
+        <v>208.1399993896484</v>
       </c>
       <c r="F91" t="n">
-        <v>213.8070068359375</v>
+        <v>207.4427947998047</v>
       </c>
       <c r="G91" t="n">
-        <v>79943300</v>
+        <v>80727000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45463</v>
+        <v>45468</v>
       </c>
       <c r="B92" t="n">
-        <v>213.9299926757812</v>
+        <v>209.1499938964844</v>
       </c>
       <c r="C92" t="n">
-        <v>214.2400054931641</v>
+        <v>211.3800048828125</v>
       </c>
       <c r="D92" t="n">
-        <v>208.8500061035156</v>
+        <v>208.6100006103516</v>
       </c>
       <c r="E92" t="n">
-        <v>209.6799926757812</v>
+        <v>209.0700073242188</v>
       </c>
       <c r="F92" t="n">
-        <v>209.2073974609375</v>
+        <v>208.3696899414062</v>
       </c>
       <c r="G92" t="n">
-        <v>86172500</v>
+        <v>56713900</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45464</v>
+        <v>45469</v>
       </c>
       <c r="B93" t="n">
-        <v>210.3899993896484</v>
+        <v>211.5</v>
       </c>
       <c r="C93" t="n">
-        <v>211.8899993896484</v>
+        <v>214.8600006103516</v>
       </c>
       <c r="D93" t="n">
-        <v>207.1100006103516</v>
+        <v>210.6399993896484</v>
       </c>
       <c r="E93" t="n">
-        <v>207.4900054931641</v>
+        <v>213.25</v>
       </c>
       <c r="F93" t="n">
-        <v>207.0223541259766</v>
+        <v>212.5356903076172</v>
       </c>
       <c r="G93" t="n">
-        <v>246421400</v>
+        <v>66213200</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45467</v>
+        <v>45470</v>
       </c>
       <c r="B94" t="n">
-        <v>207.7200012207031</v>
+        <v>214.6900024414062</v>
       </c>
       <c r="C94" t="n">
-        <v>212.6999969482422</v>
+        <v>215.7400054931641</v>
       </c>
       <c r="D94" t="n">
-        <v>206.5899963378906</v>
+        <v>212.3500061035156</v>
       </c>
       <c r="E94" t="n">
-        <v>208.1399993896484</v>
+        <v>214.1000061035156</v>
       </c>
       <c r="F94" t="n">
-        <v>207.6708831787109</v>
+        <v>213.3828430175781</v>
       </c>
       <c r="G94" t="n">
-        <v>80727000</v>
+        <v>49772700</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45468</v>
+        <v>45471</v>
       </c>
       <c r="B95" t="n">
-        <v>209.1499938964844</v>
+        <v>215.7700042724609</v>
       </c>
       <c r="C95" t="n">
-        <v>211.3800048828125</v>
+        <v>216.0700073242188</v>
       </c>
       <c r="D95" t="n">
-        <v>208.6100006103516</v>
+        <v>210.3000030517578</v>
       </c>
       <c r="E95" t="n">
-        <v>209.0700073242188</v>
+        <v>210.6199951171875</v>
       </c>
       <c r="F95" t="n">
-        <v>208.5987854003906</v>
+        <v>209.9144744873047</v>
       </c>
       <c r="G95" t="n">
-        <v>56713900</v>
+        <v>82542700</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45469</v>
+        <v>45474</v>
       </c>
       <c r="B96" t="n">
-        <v>211.5</v>
+        <v>212.0899963378906</v>
       </c>
       <c r="C96" t="n">
-        <v>214.8600006103516</v>
+        <v>217.5099945068359</v>
       </c>
       <c r="D96" t="n">
-        <v>210.6399993896484</v>
+        <v>211.9199981689453</v>
       </c>
       <c r="E96" t="n">
-        <v>213.25</v>
+        <v>216.75</v>
       </c>
       <c r="F96" t="n">
-        <v>212.7693634033203</v>
+        <v>216.0239562988281</v>
       </c>
       <c r="G96" t="n">
-        <v>66213200</v>
+        <v>60402900</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45470</v>
+        <v>45475</v>
       </c>
       <c r="B97" t="n">
-        <v>214.6900024414062</v>
+        <v>216.1499938964844</v>
       </c>
       <c r="C97" t="n">
-        <v>215.7400054931641</v>
+        <v>220.3800048828125</v>
       </c>
       <c r="D97" t="n">
-        <v>212.3500061035156</v>
+        <v>215.1000061035156</v>
       </c>
       <c r="E97" t="n">
-        <v>214.1000061035156</v>
+        <v>220.2700042724609</v>
       </c>
       <c r="F97" t="n">
-        <v>213.6174621582031</v>
+        <v>219.5321655273438</v>
       </c>
       <c r="G97" t="n">
-        <v>49772700</v>
+        <v>58046200</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="B98" t="n">
-        <v>215.7700042724609</v>
+        <v>220</v>
       </c>
       <c r="C98" t="n">
-        <v>216.0700073242188</v>
+        <v>221.5500030517578</v>
       </c>
       <c r="D98" t="n">
-        <v>210.3000030517578</v>
+        <v>219.0299987792969</v>
       </c>
       <c r="E98" t="n">
-        <v>210.6199951171875</v>
+        <v>221.5500030517578</v>
       </c>
       <c r="F98" t="n">
-        <v>210.1452789306641</v>
+        <v>220.8078765869141</v>
       </c>
       <c r="G98" t="n">
-        <v>82542700</v>
+        <v>37369800</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45474</v>
+        <v>45478</v>
       </c>
       <c r="B99" t="n">
-        <v>212.0899963378906</v>
+        <v>221.6499938964844</v>
       </c>
       <c r="C99" t="n">
-        <v>217.5099945068359</v>
+        <v>226.4499969482422</v>
       </c>
       <c r="D99" t="n">
-        <v>211.9199981689453</v>
+        <v>221.6499938964844</v>
       </c>
       <c r="E99" t="n">
-        <v>216.75</v>
+        <v>226.3399963378906</v>
       </c>
       <c r="F99" t="n">
-        <v>216.261474609375</v>
+        <v>225.5818328857422</v>
       </c>
       <c r="G99" t="n">
-        <v>60402900</v>
+        <v>60412400</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45475</v>
+        <v>45481</v>
       </c>
       <c r="B100" t="n">
-        <v>216.1499938964844</v>
+        <v>227.0899963378906</v>
       </c>
       <c r="C100" t="n">
-        <v>220.3800048828125</v>
+        <v>227.8500061035156</v>
       </c>
       <c r="D100" t="n">
-        <v>215.1000061035156</v>
+        <v>223.25</v>
       </c>
       <c r="E100" t="n">
-        <v>220.2700042724609</v>
+        <v>227.8200073242188</v>
       </c>
       <c r="F100" t="n">
-        <v>219.7735443115234</v>
+        <v>227.056884765625</v>
       </c>
       <c r="G100" t="n">
-        <v>58046200</v>
+        <v>59085900</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B101" t="n">
-        <v>220</v>
+        <v>227.9299926757812</v>
       </c>
       <c r="C101" t="n">
-        <v>221.5500030517578</v>
+        <v>229.3999938964844</v>
       </c>
       <c r="D101" t="n">
-        <v>219.0299987792969</v>
+        <v>226.3699951171875</v>
       </c>
       <c r="E101" t="n">
-        <v>221.5500030517578</v>
+        <v>228.6799926757812</v>
       </c>
       <c r="F101" t="n">
-        <v>221.0506591796875</v>
+        <v>227.9139862060547</v>
       </c>
       <c r="G101" t="n">
-        <v>37369800</v>
+        <v>48076100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45478</v>
+        <v>45483</v>
       </c>
       <c r="B102" t="n">
-        <v>221.6499938964844</v>
+        <v>229.3000030517578</v>
       </c>
       <c r="C102" t="n">
-        <v>226.4499969482422</v>
+        <v>233.0800018310547</v>
       </c>
       <c r="D102" t="n">
-        <v>221.6499938964844</v>
+        <v>229.25</v>
       </c>
       <c r="E102" t="n">
-        <v>226.3399963378906</v>
+        <v>232.9799957275391</v>
       </c>
       <c r="F102" t="n">
-        <v>225.8298492431641</v>
+        <v>232.1995849609375</v>
       </c>
       <c r="G102" t="n">
-        <v>60412400</v>
+        <v>62627700</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B103" t="n">
-        <v>227.0899963378906</v>
+        <v>231.3899993896484</v>
       </c>
       <c r="C103" t="n">
-        <v>227.8500061035156</v>
+        <v>232.3899993896484</v>
       </c>
       <c r="D103" t="n">
-        <v>223.25</v>
+        <v>225.7700042724609</v>
       </c>
       <c r="E103" t="n">
-        <v>227.8200073242188</v>
+        <v>227.5700073242188</v>
       </c>
       <c r="F103" t="n">
-        <v>227.3065338134766</v>
+        <v>226.8077239990234</v>
       </c>
       <c r="G103" t="n">
-        <v>59085900</v>
+        <v>64710600</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B104" t="n">
-        <v>227.9299926757812</v>
+        <v>228.9199981689453</v>
       </c>
       <c r="C104" t="n">
-        <v>229.3999938964844</v>
+        <v>232.6399993896484</v>
       </c>
       <c r="D104" t="n">
-        <v>226.3699951171875</v>
+        <v>228.6799926757812</v>
       </c>
       <c r="E104" t="n">
-        <v>228.6799926757812</v>
+        <v>230.5399932861328</v>
       </c>
       <c r="F104" t="n">
-        <v>228.1645812988281</v>
+        <v>229.7677612304688</v>
       </c>
       <c r="G104" t="n">
-        <v>48076100</v>
+        <v>53046500</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="B105" t="n">
-        <v>229.3000030517578</v>
+        <v>236.4799957275391</v>
       </c>
       <c r="C105" t="n">
-        <v>233.0800018310547</v>
+        <v>237.2299957275391</v>
       </c>
       <c r="D105" t="n">
-        <v>229.25</v>
+        <v>233.0899963378906</v>
       </c>
       <c r="E105" t="n">
-        <v>232.9799957275391</v>
+        <v>234.3999938964844</v>
       </c>
       <c r="F105" t="n">
-        <v>232.4548950195312</v>
+        <v>233.6148376464844</v>
       </c>
       <c r="G105" t="n">
-        <v>62627700</v>
+        <v>62631300</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45484</v>
+        <v>45489</v>
       </c>
       <c r="B106" t="n">
-        <v>231.3899993896484</v>
+        <v>235</v>
       </c>
       <c r="C106" t="n">
-        <v>232.3899993896484</v>
+        <v>236.2700042724609</v>
       </c>
       <c r="D106" t="n">
-        <v>225.7700042724609</v>
+        <v>232.3300018310547</v>
       </c>
       <c r="E106" t="n">
-        <v>227.5700073242188</v>
+        <v>234.8200073242188</v>
       </c>
       <c r="F106" t="n">
-        <v>227.0570983886719</v>
+        <v>234.0334320068359</v>
       </c>
       <c r="G106" t="n">
-        <v>64710600</v>
+        <v>43234300</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45485</v>
+        <v>45490</v>
       </c>
       <c r="B107" t="n">
-        <v>228.9199981689453</v>
+        <v>229.4499969482422</v>
       </c>
       <c r="C107" t="n">
-        <v>232.6399993896484</v>
+        <v>231.4600067138672</v>
       </c>
       <c r="D107" t="n">
-        <v>228.6799926757812</v>
+        <v>226.6399993896484</v>
       </c>
       <c r="E107" t="n">
-        <v>230.5399932861328</v>
+        <v>228.8800048828125</v>
       </c>
       <c r="F107" t="n">
-        <v>230.0203857421875</v>
+        <v>228.1133270263672</v>
       </c>
       <c r="G107" t="n">
-        <v>53046500</v>
+        <v>57345900</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45488</v>
+        <v>45491</v>
       </c>
       <c r="B108" t="n">
-        <v>236.4799957275391</v>
+        <v>230.2799987792969</v>
       </c>
       <c r="C108" t="n">
-        <v>237.2299957275391</v>
+        <v>230.4400024414062</v>
       </c>
       <c r="D108" t="n">
-        <v>233.0899963378906</v>
+        <v>222.2700042724609</v>
       </c>
       <c r="E108" t="n">
-        <v>234.3999938964844</v>
+        <v>224.1799926757812</v>
       </c>
       <c r="F108" t="n">
-        <v>233.8716888427734</v>
+        <v>223.4290618896484</v>
       </c>
       <c r="G108" t="n">
-        <v>62631300</v>
+        <v>66034600</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45489</v>
+        <v>45492</v>
       </c>
       <c r="B109" t="n">
-        <v>235</v>
+        <v>224.8200073242188</v>
       </c>
       <c r="C109" t="n">
-        <v>236.2700042724609</v>
+        <v>226.8000030517578</v>
       </c>
       <c r="D109" t="n">
-        <v>232.3300018310547</v>
+        <v>223.2799987792969</v>
       </c>
       <c r="E109" t="n">
-        <v>234.8200073242188</v>
+        <v>224.3099975585938</v>
       </c>
       <c r="F109" t="n">
-        <v>234.2907409667969</v>
+        <v>223.5586242675781</v>
       </c>
       <c r="G109" t="n">
-        <v>43234300</v>
+        <v>49151500</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="B110" t="n">
-        <v>229.4499969482422</v>
+        <v>227.0099945068359</v>
       </c>
       <c r="C110" t="n">
-        <v>231.4600067138672</v>
+        <v>227.7799987792969</v>
       </c>
       <c r="D110" t="n">
-        <v>226.6399993896484</v>
+        <v>223.0899963378906</v>
       </c>
       <c r="E110" t="n">
-        <v>228.8800048828125</v>
+        <v>223.9600067138672</v>
       </c>
       <c r="F110" t="n">
-        <v>228.3641357421875</v>
+        <v>223.2098236083984</v>
       </c>
       <c r="G110" t="n">
-        <v>57345900</v>
+        <v>48201800</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45491</v>
+        <v>45496</v>
       </c>
       <c r="B111" t="n">
-        <v>230.2799987792969</v>
+        <v>224.3699951171875</v>
       </c>
       <c r="C111" t="n">
-        <v>230.4400024414062</v>
+        <v>226.9400024414062</v>
       </c>
       <c r="D111" t="n">
-        <v>222.2700042724609</v>
+        <v>222.6799926757812</v>
       </c>
       <c r="E111" t="n">
-        <v>224.1799926757812</v>
+        <v>225.0099945068359</v>
       </c>
       <c r="F111" t="n">
-        <v>223.6747283935547</v>
+        <v>224.2562866210938</v>
       </c>
       <c r="G111" t="n">
-        <v>66034600</v>
+        <v>39960300</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45492</v>
+        <v>45497</v>
       </c>
       <c r="B112" t="n">
-        <v>224.8200073242188</v>
+        <v>224</v>
       </c>
       <c r="C112" t="n">
-        <v>226.8000030517578</v>
+        <v>224.8000030517578</v>
       </c>
       <c r="D112" t="n">
-        <v>223.2799987792969</v>
+        <v>217.1300048828125</v>
       </c>
       <c r="E112" t="n">
-        <v>224.3099975585938</v>
+        <v>218.5399932861328</v>
       </c>
       <c r="F112" t="n">
-        <v>223.8044281005859</v>
+        <v>217.8079681396484</v>
       </c>
       <c r="G112" t="n">
-        <v>49151500</v>
+        <v>61777600</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45495</v>
+        <v>45498</v>
       </c>
       <c r="B113" t="n">
-        <v>227.0099945068359</v>
+        <v>218.9299926757812</v>
       </c>
       <c r="C113" t="n">
-        <v>227.7799987792969</v>
+        <v>220.8500061035156</v>
       </c>
       <c r="D113" t="n">
-        <v>223.0899963378906</v>
+        <v>214.6199951171875</v>
       </c>
       <c r="E113" t="n">
-        <v>223.9600067138672</v>
+        <v>217.4900054931641</v>
       </c>
       <c r="F113" t="n">
-        <v>223.4552307128906</v>
+        <v>216.7614898681641</v>
       </c>
       <c r="G113" t="n">
-        <v>48201800</v>
+        <v>51391200</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45496</v>
+        <v>45499</v>
       </c>
       <c r="B114" t="n">
-        <v>224.3699951171875</v>
+        <v>218.6999969482422</v>
       </c>
       <c r="C114" t="n">
-        <v>226.9400024414062</v>
+        <v>219.4900054931641</v>
       </c>
       <c r="D114" t="n">
-        <v>222.6799926757812</v>
+        <v>216.0099945068359</v>
       </c>
       <c r="E114" t="n">
-        <v>225.0099945068359</v>
+        <v>217.9600067138672</v>
       </c>
       <c r="F114" t="n">
-        <v>224.5028533935547</v>
+        <v>217.2299194335938</v>
       </c>
       <c r="G114" t="n">
-        <v>39960300</v>
+        <v>41601300</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45497</v>
+        <v>45502</v>
       </c>
       <c r="B115" t="n">
-        <v>224</v>
+        <v>216.9600067138672</v>
       </c>
       <c r="C115" t="n">
-        <v>224.8000030517578</v>
+        <v>219.3000030517578</v>
       </c>
       <c r="D115" t="n">
-        <v>217.1300048828125</v>
+        <v>215.75</v>
       </c>
       <c r="E115" t="n">
-        <v>218.5399932861328</v>
+        <v>218.2400054931641</v>
       </c>
       <c r="F115" t="n">
-        <v>218.0474395751953</v>
+        <v>217.5089721679688</v>
       </c>
       <c r="G115" t="n">
-        <v>61777600</v>
+        <v>36311800</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B116" t="n">
-        <v>218.9299926757812</v>
+        <v>219.1900024414062</v>
       </c>
       <c r="C116" t="n">
-        <v>220.8500061035156</v>
+        <v>220.3300018310547</v>
       </c>
       <c r="D116" t="n">
-        <v>214.6199951171875</v>
+        <v>216.1199951171875</v>
       </c>
       <c r="E116" t="n">
-        <v>217.4900054931641</v>
+        <v>218.8000030517578</v>
       </c>
       <c r="F116" t="n">
-        <v>216.9998168945312</v>
+        <v>218.0670928955078</v>
       </c>
       <c r="G116" t="n">
-        <v>51391200</v>
+        <v>41643800</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B117" t="n">
-        <v>218.6999969482422</v>
+        <v>221.4400024414062</v>
       </c>
       <c r="C117" t="n">
-        <v>219.4900054931641</v>
+        <v>223.8200073242188</v>
       </c>
       <c r="D117" t="n">
-        <v>216.0099945068359</v>
+        <v>220.6300048828125</v>
       </c>
       <c r="E117" t="n">
-        <v>217.9600067138672</v>
+        <v>222.0800018310547</v>
       </c>
       <c r="F117" t="n">
-        <v>217.46875</v>
+        <v>221.3361053466797</v>
       </c>
       <c r="G117" t="n">
-        <v>41601300</v>
+        <v>50036300</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B118" t="n">
-        <v>216.9600067138672</v>
+        <v>224.3699951171875</v>
       </c>
       <c r="C118" t="n">
-        <v>219.3000030517578</v>
+        <v>224.4799957275391</v>
       </c>
       <c r="D118" t="n">
-        <v>215.75</v>
+        <v>217.0200042724609</v>
       </c>
       <c r="E118" t="n">
-        <v>218.2400054931641</v>
+        <v>218.3600006103516</v>
       </c>
       <c r="F118" t="n">
-        <v>217.7481231689453</v>
+        <v>217.6285552978516</v>
       </c>
       <c r="G118" t="n">
-        <v>36311800</v>
+        <v>62501000</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B119" t="n">
-        <v>219.1900024414062</v>
+        <v>219.1499938964844</v>
       </c>
       <c r="C119" t="n">
-        <v>220.3300018310547</v>
+        <v>225.6000061035156</v>
       </c>
       <c r="D119" t="n">
-        <v>216.1199951171875</v>
+        <v>217.7100067138672</v>
       </c>
       <c r="E119" t="n">
-        <v>218.8000030517578</v>
+        <v>219.8600006103516</v>
       </c>
       <c r="F119" t="n">
-        <v>218.3068542480469</v>
+        <v>219.1235504150391</v>
       </c>
       <c r="G119" t="n">
-        <v>41643800</v>
+        <v>105568600</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B120" t="n">
-        <v>221.4400024414062</v>
+        <v>199.0899963378906</v>
       </c>
       <c r="C120" t="n">
-        <v>223.8200073242188</v>
+        <v>213.5</v>
       </c>
       <c r="D120" t="n">
-        <v>220.6300048828125</v>
+        <v>196</v>
       </c>
       <c r="E120" t="n">
-        <v>222.0800018310547</v>
+        <v>209.2700042724609</v>
       </c>
       <c r="F120" t="n">
-        <v>221.5794677734375</v>
+        <v>208.5690307617188</v>
       </c>
       <c r="G120" t="n">
-        <v>50036300</v>
+        <v>119548600</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B121" t="n">
-        <v>224.3699951171875</v>
+        <v>205.3000030517578</v>
       </c>
       <c r="C121" t="n">
-        <v>224.4799957275391</v>
+        <v>209.9900054931641</v>
       </c>
       <c r="D121" t="n">
-        <v>217.0200042724609</v>
+        <v>201.0700073242188</v>
       </c>
       <c r="E121" t="n">
-        <v>218.3600006103516</v>
+        <v>207.2299957275391</v>
       </c>
       <c r="F121" t="n">
-        <v>217.8678436279297</v>
+        <v>206.5358581542969</v>
       </c>
       <c r="G121" t="n">
-        <v>62501000</v>
+        <v>69660500</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B122" t="n">
-        <v>219.1499938964844</v>
+        <v>206.8999938964844</v>
       </c>
       <c r="C122" t="n">
-        <v>225.6000061035156</v>
+        <v>213.6399993896484</v>
       </c>
       <c r="D122" t="n">
-        <v>217.7100067138672</v>
+        <v>206.3899993896484</v>
       </c>
       <c r="E122" t="n">
-        <v>219.8600006103516</v>
+        <v>209.8200073242188</v>
       </c>
       <c r="F122" t="n">
-        <v>219.3644714355469</v>
+        <v>209.1171722412109</v>
       </c>
       <c r="G122" t="n">
-        <v>105568600</v>
+        <v>63516400</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45509</v>
+        <v>45512</v>
       </c>
       <c r="B123" t="n">
-        <v>199.0899963378906</v>
+        <v>213.1100006103516</v>
       </c>
       <c r="C123" t="n">
-        <v>213.5</v>
+        <v>214.1999969482422</v>
       </c>
       <c r="D123" t="n">
-        <v>196</v>
+        <v>208.8300018310547</v>
       </c>
       <c r="E123" t="n">
-        <v>209.2700042724609</v>
+        <v>213.3099975585938</v>
       </c>
       <c r="F123" t="n">
-        <v>208.79833984375</v>
+        <v>212.5954895019531</v>
       </c>
       <c r="G123" t="n">
-        <v>119548600</v>
+        <v>47161100</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="B124" t="n">
-        <v>205.3000030517578</v>
+        <v>212.1000061035156</v>
       </c>
       <c r="C124" t="n">
-        <v>209.9900054931641</v>
+        <v>216.7799987792969</v>
       </c>
       <c r="D124" t="n">
-        <v>201.0700073242188</v>
+        <v>211.9700012207031</v>
       </c>
       <c r="E124" t="n">
-        <v>207.2299957275391</v>
+        <v>216.2400054931641</v>
       </c>
       <c r="F124" t="n">
-        <v>206.762939453125</v>
+        <v>215.5156860351562</v>
       </c>
       <c r="G124" t="n">
-        <v>69660500</v>
+        <v>42201600</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B125" t="n">
-        <v>206.8999938964844</v>
+        <v>216.0700073242188</v>
       </c>
       <c r="C125" t="n">
-        <v>213.6399993896484</v>
+        <v>219.5099945068359</v>
       </c>
       <c r="D125" t="n">
-        <v>206.3899993896484</v>
+        <v>215.6000061035156</v>
       </c>
       <c r="E125" t="n">
-        <v>209.8200073242188</v>
+        <v>217.5299987792969</v>
       </c>
       <c r="F125" t="n">
-        <v>209.3471069335938</v>
+        <v>217.0522918701172</v>
       </c>
       <c r="G125" t="n">
-        <v>63516400</v>
+        <v>38028100</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B126" t="n">
-        <v>213.1100006103516</v>
+        <v>219.0099945068359</v>
       </c>
       <c r="C126" t="n">
-        <v>214.1999969482422</v>
+        <v>221.8899993896484</v>
       </c>
       <c r="D126" t="n">
-        <v>208.8300018310547</v>
+        <v>219.0099945068359</v>
       </c>
       <c r="E126" t="n">
-        <v>213.3099975585938</v>
+        <v>221.2700042724609</v>
       </c>
       <c r="F126" t="n">
-        <v>212.8292236328125</v>
+        <v>220.7840728759766</v>
       </c>
       <c r="G126" t="n">
-        <v>47161100</v>
+        <v>44155300</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B127" t="n">
-        <v>212.1000061035156</v>
+        <v>220.5700073242188</v>
       </c>
       <c r="C127" t="n">
-        <v>216.7799987792969</v>
+        <v>223.0299987792969</v>
       </c>
       <c r="D127" t="n">
-        <v>211.9700012207031</v>
+        <v>219.6999969482422</v>
       </c>
       <c r="E127" t="n">
-        <v>216.2400054931641</v>
+        <v>221.7200012207031</v>
       </c>
       <c r="F127" t="n">
-        <v>215.7526397705078</v>
+        <v>221.2330932617188</v>
       </c>
       <c r="G127" t="n">
-        <v>42201600</v>
+        <v>41960600</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="B128" t="n">
-        <v>216.0700073242188</v>
+        <v>224.6000061035156</v>
       </c>
       <c r="C128" t="n">
-        <v>219.5099945068359</v>
+        <v>225.3500061035156</v>
       </c>
       <c r="D128" t="n">
-        <v>215.6000061035156</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="E128" t="n">
-        <v>217.5299987792969</v>
+        <v>224.7200012207031</v>
       </c>
       <c r="F128" t="n">
-        <v>217.2909393310547</v>
+        <v>224.2265014648438</v>
       </c>
       <c r="G128" t="n">
-        <v>38028100</v>
+        <v>46414000</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="B129" t="n">
-        <v>219.0099945068359</v>
+        <v>223.9199981689453</v>
       </c>
       <c r="C129" t="n">
-        <v>221.8899993896484</v>
+        <v>226.8300018310547</v>
       </c>
       <c r="D129" t="n">
-        <v>219.0099945068359</v>
+        <v>223.6499938964844</v>
       </c>
       <c r="E129" t="n">
-        <v>221.2700042724609</v>
+        <v>226.0500030517578</v>
       </c>
       <c r="F129" t="n">
-        <v>221.0268249511719</v>
+        <v>225.5535888671875</v>
       </c>
       <c r="G129" t="n">
-        <v>44155300</v>
+        <v>44340200</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45518</v>
+        <v>45523</v>
       </c>
       <c r="B130" t="n">
-        <v>220.5700073242188</v>
+        <v>225.7200012207031</v>
       </c>
       <c r="C130" t="n">
-        <v>223.0299987792969</v>
+        <v>225.9900054931641</v>
       </c>
       <c r="D130" t="n">
-        <v>219.6999969482422</v>
+        <v>223.0399932861328</v>
       </c>
       <c r="E130" t="n">
-        <v>221.7200012207031</v>
+        <v>225.8899993896484</v>
       </c>
       <c r="F130" t="n">
-        <v>221.4763336181641</v>
+        <v>225.3939361572266</v>
       </c>
       <c r="G130" t="n">
-        <v>41960600</v>
+        <v>40687800</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="B131" t="n">
-        <v>224.6000061035156</v>
+        <v>225.7700042724609</v>
       </c>
       <c r="C131" t="n">
-        <v>225.3500061035156</v>
+        <v>227.1699981689453</v>
       </c>
       <c r="D131" t="n">
-        <v>222.7599945068359</v>
+        <v>225.4499969482422</v>
       </c>
       <c r="E131" t="n">
-        <v>224.7200012207031</v>
+        <v>226.5099945068359</v>
       </c>
       <c r="F131" t="n">
-        <v>224.4730377197266</v>
+        <v>226.0125732421875</v>
       </c>
       <c r="G131" t="n">
-        <v>46414000</v>
+        <v>30299000</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45520</v>
+        <v>45525</v>
       </c>
       <c r="B132" t="n">
-        <v>223.9199981689453</v>
+        <v>226.5200042724609</v>
       </c>
       <c r="C132" t="n">
-        <v>226.8300018310547</v>
+        <v>227.9799957275391</v>
       </c>
       <c r="D132" t="n">
-        <v>223.6499938964844</v>
+        <v>225.0500030517578</v>
       </c>
       <c r="E132" t="n">
-        <v>226.0500030517578</v>
+        <v>226.3999938964844</v>
       </c>
       <c r="F132" t="n">
-        <v>225.8015747070312</v>
+        <v>225.9028015136719</v>
       </c>
       <c r="G132" t="n">
-        <v>44340200</v>
+        <v>34765500</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45523</v>
+        <v>45526</v>
       </c>
       <c r="B133" t="n">
-        <v>225.7200012207031</v>
+        <v>227.7899932861328</v>
       </c>
       <c r="C133" t="n">
-        <v>225.9900054931641</v>
+        <v>228.3399963378906</v>
       </c>
       <c r="D133" t="n">
-        <v>223.0399932861328</v>
+        <v>223.8999938964844</v>
       </c>
       <c r="E133" t="n">
-        <v>225.8899993896484</v>
+        <v>224.5299987792969</v>
       </c>
       <c r="F133" t="n">
-        <v>225.6417541503906</v>
+        <v>224.0369262695312</v>
       </c>
       <c r="G133" t="n">
-        <v>40687800</v>
+        <v>43695300</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="B134" t="n">
-        <v>225.7700042724609</v>
+        <v>225.6600036621094</v>
       </c>
       <c r="C134" t="n">
-        <v>227.1699981689453</v>
+        <v>228.2200012207031</v>
       </c>
       <c r="D134" t="n">
-        <v>225.4499969482422</v>
+        <v>224.3300018310547</v>
       </c>
       <c r="E134" t="n">
-        <v>226.5099945068359</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="F134" t="n">
-        <v>226.2610626220703</v>
+        <v>226.3418426513672</v>
       </c>
       <c r="G134" t="n">
-        <v>30299000</v>
+        <v>38677300</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="B135" t="n">
-        <v>226.5200042724609</v>
+        <v>226.7599945068359</v>
       </c>
       <c r="C135" t="n">
-        <v>227.9799957275391</v>
+        <v>227.2799987792969</v>
       </c>
       <c r="D135" t="n">
-        <v>225.0500030517578</v>
+        <v>223.8899993896484</v>
       </c>
       <c r="E135" t="n">
-        <v>226.3999938964844</v>
+        <v>227.1799926757812</v>
       </c>
       <c r="F135" t="n">
-        <v>226.1511840820312</v>
+        <v>226.6810913085938</v>
       </c>
       <c r="G135" t="n">
-        <v>34765500</v>
+        <v>30602200</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45526</v>
+        <v>45531</v>
       </c>
       <c r="B136" t="n">
-        <v>227.7899932861328</v>
+        <v>226</v>
       </c>
       <c r="C136" t="n">
-        <v>228.3399963378906</v>
+        <v>228.8500061035156</v>
       </c>
       <c r="D136" t="n">
-        <v>223.8999938964844</v>
+        <v>224.8899993896484</v>
       </c>
       <c r="E136" t="n">
-        <v>224.5299987792969</v>
+        <v>228.0299987792969</v>
       </c>
       <c r="F136" t="n">
-        <v>224.2832489013672</v>
+        <v>227.5292205810547</v>
       </c>
       <c r="G136" t="n">
-        <v>43695300</v>
+        <v>35934600</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45527</v>
+        <v>45532</v>
       </c>
       <c r="B137" t="n">
-        <v>225.6600036621094</v>
+        <v>227.9199981689453</v>
       </c>
       <c r="C137" t="n">
-        <v>228.2200012207031</v>
+        <v>229.8600006103516</v>
       </c>
       <c r="D137" t="n">
-        <v>224.3300018310547</v>
+        <v>225.6799926757812</v>
       </c>
       <c r="E137" t="n">
-        <v>226.8399963378906</v>
+        <v>226.4900054931641</v>
       </c>
       <c r="F137" t="n">
-        <v>226.5906982421875</v>
+        <v>225.9926147460938</v>
       </c>
       <c r="G137" t="n">
-        <v>38677300</v>
+        <v>38052200</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="B138" t="n">
-        <v>226.7599945068359</v>
+        <v>230.1000061035156</v>
       </c>
       <c r="C138" t="n">
-        <v>227.2799987792969</v>
+        <v>232.9199981689453</v>
       </c>
       <c r="D138" t="n">
-        <v>223.8899993896484</v>
+        <v>228.8800048828125</v>
       </c>
       <c r="E138" t="n">
-        <v>227.1799926757812</v>
+        <v>229.7899932861328</v>
       </c>
       <c r="F138" t="n">
-        <v>226.9303283691406</v>
+        <v>229.2853698730469</v>
       </c>
       <c r="G138" t="n">
-        <v>30602200</v>
+        <v>51906300</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45531</v>
+        <v>45534</v>
       </c>
       <c r="B139" t="n">
-        <v>226</v>
+        <v>230.1900024414062</v>
       </c>
       <c r="C139" t="n">
-        <v>228.8500061035156</v>
+        <v>230.3999938964844</v>
       </c>
       <c r="D139" t="n">
-        <v>224.8899993896484</v>
+        <v>227.4799957275391</v>
       </c>
       <c r="E139" t="n">
-        <v>228.0299987792969</v>
+        <v>229</v>
       </c>
       <c r="F139" t="n">
-        <v>227.7793884277344</v>
+        <v>228.4971008300781</v>
       </c>
       <c r="G139" t="n">
-        <v>35934600</v>
+        <v>52990800</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45532</v>
+        <v>45538</v>
       </c>
       <c r="B140" t="n">
-        <v>227.9199981689453</v>
+        <v>228.5500030517578</v>
       </c>
       <c r="C140" t="n">
-        <v>229.8600006103516</v>
+        <v>229</v>
       </c>
       <c r="D140" t="n">
-        <v>225.6799926757812</v>
+        <v>221.1699981689453</v>
       </c>
       <c r="E140" t="n">
-        <v>226.4900054931641</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="F140" t="n">
-        <v>226.2410888671875</v>
+        <v>222.2807769775391</v>
       </c>
       <c r="G140" t="n">
-        <v>38052200</v>
+        <v>50190600</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="B141" t="n">
-        <v>230.1000061035156</v>
+        <v>221.6600036621094</v>
       </c>
       <c r="C141" t="n">
-        <v>232.9199981689453</v>
+        <v>221.7799987792969</v>
       </c>
       <c r="D141" t="n">
-        <v>228.8800048828125</v>
+        <v>217.4799957275391</v>
       </c>
       <c r="E141" t="n">
-        <v>229.7899932861328</v>
+        <v>220.8500061035156</v>
       </c>
       <c r="F141" t="n">
-        <v>229.5374603271484</v>
+        <v>220.3650054931641</v>
       </c>
       <c r="G141" t="n">
-        <v>51906300</v>
+        <v>43840200</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45534</v>
+        <v>45540</v>
       </c>
       <c r="B142" t="n">
-        <v>230.1900024414062</v>
+        <v>221.6300048828125</v>
       </c>
       <c r="C142" t="n">
-        <v>230.3999938964844</v>
+        <v>225.4799957275391</v>
       </c>
       <c r="D142" t="n">
-        <v>227.4799957275391</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E142" t="n">
-        <v>229</v>
+        <v>222.3800048828125</v>
       </c>
       <c r="F142" t="n">
-        <v>228.7483367919922</v>
+        <v>221.8916320800781</v>
       </c>
       <c r="G142" t="n">
-        <v>52990800</v>
+        <v>36615400</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45538</v>
+        <v>45541</v>
       </c>
       <c r="B143" t="n">
-        <v>228.5500030517578</v>
+        <v>223.9499969482422</v>
       </c>
       <c r="C143" t="n">
-        <v>229</v>
+        <v>225.2400054931641</v>
       </c>
       <c r="D143" t="n">
-        <v>221.1699981689453</v>
+        <v>219.7700042724609</v>
       </c>
       <c r="E143" t="n">
-        <v>222.7700042724609</v>
+        <v>220.8200073242188</v>
       </c>
       <c r="F143" t="n">
-        <v>222.5251770019531</v>
+        <v>220.3350830078125</v>
       </c>
       <c r="G143" t="n">
-        <v>50190600</v>
+        <v>48423000</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="B144" t="n">
-        <v>221.6600036621094</v>
+        <v>220.8200073242188</v>
       </c>
       <c r="C144" t="n">
-        <v>221.7799987792969</v>
+        <v>221.2700042724609</v>
       </c>
       <c r="D144" t="n">
-        <v>217.4799957275391</v>
+        <v>216.7100067138672</v>
       </c>
       <c r="E144" t="n">
-        <v>220.8500061035156</v>
+        <v>220.9100036621094</v>
       </c>
       <c r="F144" t="n">
-        <v>220.6072998046875</v>
+        <v>220.4248657226562</v>
       </c>
       <c r="G144" t="n">
-        <v>43840200</v>
+        <v>67180000</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45540</v>
+        <v>45545</v>
       </c>
       <c r="B145" t="n">
-        <v>221.6300048828125</v>
+        <v>218.9199981689453</v>
       </c>
       <c r="C145" t="n">
-        <v>225.4799957275391</v>
+        <v>221.4799957275391</v>
       </c>
       <c r="D145" t="n">
-        <v>221.5200042724609</v>
+        <v>216.7299957275391</v>
       </c>
       <c r="E145" t="n">
-        <v>222.3800048828125</v>
+        <v>220.1100006103516</v>
       </c>
       <c r="F145" t="n">
-        <v>222.1356048583984</v>
+        <v>219.6266326904297</v>
       </c>
       <c r="G145" t="n">
-        <v>36615400</v>
+        <v>51591000</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45541</v>
+        <v>45546</v>
       </c>
       <c r="B146" t="n">
-        <v>223.9499969482422</v>
+        <v>221.4600067138672</v>
       </c>
       <c r="C146" t="n">
-        <v>225.2400054931641</v>
+        <v>223.0899963378906</v>
       </c>
       <c r="D146" t="n">
-        <v>219.7700042724609</v>
+        <v>217.8899993896484</v>
       </c>
       <c r="E146" t="n">
-        <v>220.8200073242188</v>
+        <v>222.6600036621094</v>
       </c>
       <c r="F146" t="n">
-        <v>220.5773315429688</v>
+        <v>222.1710205078125</v>
       </c>
       <c r="G146" t="n">
-        <v>48423000</v>
+        <v>44587100</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45544</v>
+        <v>45547</v>
       </c>
       <c r="B147" t="n">
-        <v>220.8200073242188</v>
+        <v>222.5</v>
       </c>
       <c r="C147" t="n">
-        <v>221.2700042724609</v>
+        <v>223.5500030517578</v>
       </c>
       <c r="D147" t="n">
-        <v>216.7100067138672</v>
+        <v>219.8200073242188</v>
       </c>
       <c r="E147" t="n">
-        <v>220.9100036621094</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="F147" t="n">
-        <v>220.6672210693359</v>
+        <v>222.2807769775391</v>
       </c>
       <c r="G147" t="n">
-        <v>67180000</v>
+        <v>37498200</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45545</v>
+        <v>45548</v>
       </c>
       <c r="B148" t="n">
-        <v>218.9199981689453</v>
+        <v>223.5800018310547</v>
       </c>
       <c r="C148" t="n">
-        <v>221.4799957275391</v>
+        <v>224.0399932861328</v>
       </c>
       <c r="D148" t="n">
-        <v>216.7299957275391</v>
+        <v>221.9100036621094</v>
       </c>
       <c r="E148" t="n">
-        <v>220.1100006103516</v>
+        <v>222.5</v>
       </c>
       <c r="F148" t="n">
-        <v>219.8681030273438</v>
+        <v>222.0113830566406</v>
       </c>
       <c r="G148" t="n">
-        <v>51591000</v>
+        <v>36766600</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45546</v>
+        <v>45551</v>
       </c>
       <c r="B149" t="n">
-        <v>221.4600067138672</v>
+        <v>216.5399932861328</v>
       </c>
       <c r="C149" t="n">
-        <v>223.0899963378906</v>
+        <v>217.2200012207031</v>
       </c>
       <c r="D149" t="n">
-        <v>217.8899993896484</v>
+        <v>213.9199981689453</v>
       </c>
       <c r="E149" t="n">
-        <v>222.6600036621094</v>
+        <v>216.3200073242188</v>
       </c>
       <c r="F149" t="n">
-        <v>222.4152984619141</v>
+        <v>215.8449554443359</v>
       </c>
       <c r="G149" t="n">
-        <v>44587100</v>
+        <v>59357400</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45547</v>
+        <v>45552</v>
       </c>
       <c r="B150" t="n">
-        <v>222.5</v>
+        <v>215.75</v>
       </c>
       <c r="C150" t="n">
-        <v>223.5500030517578</v>
+        <v>216.8999938964844</v>
       </c>
       <c r="D150" t="n">
-        <v>219.8200073242188</v>
+        <v>214.5</v>
       </c>
       <c r="E150" t="n">
-        <v>222.7700042724609</v>
+        <v>216.7899932861328</v>
       </c>
       <c r="F150" t="n">
-        <v>222.5251770019531</v>
+        <v>216.3139038085938</v>
       </c>
       <c r="G150" t="n">
-        <v>37498200</v>
+        <v>45519300</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45548</v>
+        <v>45553</v>
       </c>
       <c r="B151" t="n">
-        <v>223.5800018310547</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="C151" t="n">
-        <v>224.0399932861328</v>
+        <v>222.7100067138672</v>
       </c>
       <c r="D151" t="n">
-        <v>221.9100036621094</v>
+        <v>217.5399932861328</v>
       </c>
       <c r="E151" t="n">
-        <v>222.5</v>
+        <v>220.6900024414062</v>
       </c>
       <c r="F151" t="n">
-        <v>222.2554779052734</v>
+        <v>220.2053527832031</v>
       </c>
       <c r="G151" t="n">
-        <v>36766600</v>
+        <v>59894900</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B152" t="n">
-        <v>216.5399932861328</v>
+        <v>224.9900054931641</v>
       </c>
       <c r="C152" t="n">
-        <v>217.2200012207031</v>
+        <v>229.8200073242188</v>
       </c>
       <c r="D152" t="n">
-        <v>213.9199981689453</v>
+        <v>224.6300048828125</v>
       </c>
       <c r="E152" t="n">
-        <v>216.3200073242188</v>
+        <v>228.8699951171875</v>
       </c>
       <c r="F152" t="n">
-        <v>216.082275390625</v>
+        <v>228.3673858642578</v>
       </c>
       <c r="G152" t="n">
-        <v>59357400</v>
+        <v>66781300</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B153" t="n">
-        <v>215.75</v>
+        <v>229.9700012207031</v>
       </c>
       <c r="C153" t="n">
-        <v>216.8999938964844</v>
+        <v>233.0899963378906</v>
       </c>
       <c r="D153" t="n">
-        <v>214.5</v>
+        <v>227.6199951171875</v>
       </c>
       <c r="E153" t="n">
-        <v>216.7899932861328</v>
+        <v>228.1999969482422</v>
       </c>
       <c r="F153" t="n">
-        <v>216.5517425537109</v>
+        <v>227.6988525390625</v>
       </c>
       <c r="G153" t="n">
-        <v>45519300</v>
+        <v>318679900</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45553</v>
+        <v>45558</v>
       </c>
       <c r="B154" t="n">
-        <v>217.5500030517578</v>
+        <v>227.3399963378906</v>
       </c>
       <c r="C154" t="n">
-        <v>222.7100067138672</v>
+        <v>229.4499969482422</v>
       </c>
       <c r="D154" t="n">
-        <v>217.5399932861328</v>
+        <v>225.8099975585938</v>
       </c>
       <c r="E154" t="n">
-        <v>220.6900024414062</v>
+        <v>226.4700012207031</v>
       </c>
       <c r="F154" t="n">
-        <v>220.4474639892578</v>
+        <v>225.97265625</v>
       </c>
       <c r="G154" t="n">
-        <v>59894900</v>
+        <v>54146000</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45554</v>
+        <v>45559</v>
       </c>
       <c r="B155" t="n">
-        <v>224.9900054931641</v>
+        <v>228.6499938964844</v>
       </c>
       <c r="C155" t="n">
-        <v>229.8200073242188</v>
+        <v>229.3500061035156</v>
       </c>
       <c r="D155" t="n">
-        <v>224.6300048828125</v>
+        <v>225.7299957275391</v>
       </c>
       <c r="E155" t="n">
-        <v>228.8699951171875</v>
+        <v>227.3699951171875</v>
       </c>
       <c r="F155" t="n">
-        <v>228.6184692382812</v>
+        <v>226.8706817626953</v>
       </c>
       <c r="G155" t="n">
-        <v>66781300</v>
+        <v>43556100</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45555</v>
+        <v>45560</v>
       </c>
       <c r="B156" t="n">
-        <v>229.9700012207031</v>
+        <v>224.9299926757812</v>
       </c>
       <c r="C156" t="n">
-        <v>233.0899963378906</v>
+        <v>227.2899932861328</v>
       </c>
       <c r="D156" t="n">
-        <v>227.6199951171875</v>
+        <v>224.0200042724609</v>
       </c>
       <c r="E156" t="n">
-        <v>228.1999969482422</v>
+        <v>226.3699951171875</v>
       </c>
       <c r="F156" t="n">
-        <v>227.9492034912109</v>
+        <v>225.8728790283203</v>
       </c>
       <c r="G156" t="n">
-        <v>318679900</v>
+        <v>42308700</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45558</v>
+        <v>45561</v>
       </c>
       <c r="B157" t="n">
-        <v>227.3399963378906</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="C157" t="n">
-        <v>229.4499969482422</v>
+        <v>228.5</v>
       </c>
       <c r="D157" t="n">
-        <v>225.8099975585938</v>
+        <v>225.4100036621094</v>
       </c>
       <c r="E157" t="n">
-        <v>226.4700012207031</v>
+        <v>227.5200042724609</v>
       </c>
       <c r="F157" t="n">
-        <v>226.2211151123047</v>
+        <v>227.0203552246094</v>
       </c>
       <c r="G157" t="n">
-        <v>54146000</v>
+        <v>36636700</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45559</v>
+        <v>45562</v>
       </c>
       <c r="B158" t="n">
-        <v>228.6499938964844</v>
+        <v>228.4600067138672</v>
       </c>
       <c r="C158" t="n">
-        <v>229.3500061035156</v>
+        <v>229.5200042724609</v>
       </c>
       <c r="D158" t="n">
-        <v>225.7299957275391</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="E158" t="n">
-        <v>227.3699951171875</v>
+        <v>227.7899932861328</v>
       </c>
       <c r="F158" t="n">
-        <v>227.1201171875</v>
+        <v>227.2897491455078</v>
       </c>
       <c r="G158" t="n">
-        <v>43556100</v>
+        <v>34026000</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45560</v>
+        <v>45565</v>
       </c>
       <c r="B159" t="n">
-        <v>224.9299926757812</v>
+        <v>230.0399932861328</v>
       </c>
       <c r="C159" t="n">
-        <v>227.2899932861328</v>
+        <v>233</v>
       </c>
       <c r="D159" t="n">
-        <v>224.0200042724609</v>
+        <v>229.6499938964844</v>
       </c>
       <c r="E159" t="n">
-        <v>226.3699951171875</v>
+        <v>233</v>
       </c>
       <c r="F159" t="n">
-        <v>226.1212158203125</v>
+        <v>232.4883270263672</v>
       </c>
       <c r="G159" t="n">
-        <v>42308700</v>
+        <v>54541900</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45561</v>
+        <v>45566</v>
       </c>
       <c r="B160" t="n">
-        <v>227.3000030517578</v>
+        <v>229.5200042724609</v>
       </c>
       <c r="C160" t="n">
-        <v>228.5</v>
+        <v>229.6499938964844</v>
       </c>
       <c r="D160" t="n">
-        <v>225.4100036621094</v>
+        <v>223.7400054931641</v>
       </c>
       <c r="E160" t="n">
-        <v>227.5200042724609</v>
+        <v>226.2100067138672</v>
       </c>
       <c r="F160" t="n">
-        <v>227.2699584960938</v>
+        <v>225.7132415771484</v>
       </c>
       <c r="G160" t="n">
-        <v>36636700</v>
+        <v>63285000</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45562</v>
+        <v>45567</v>
       </c>
       <c r="B161" t="n">
-        <v>228.4600067138672</v>
+        <v>225.8899993896484</v>
       </c>
       <c r="C161" t="n">
-        <v>229.5200042724609</v>
+        <v>227.3699951171875</v>
       </c>
       <c r="D161" t="n">
-        <v>227.3000030517578</v>
+        <v>223.0200042724609</v>
       </c>
       <c r="E161" t="n">
-        <v>227.7899932861328</v>
+        <v>226.7799987792969</v>
       </c>
       <c r="F161" t="n">
-        <v>227.5396575927734</v>
+        <v>226.281982421875</v>
       </c>
       <c r="G161" t="n">
-        <v>34026000</v>
+        <v>32880600</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45565</v>
+        <v>45568</v>
       </c>
       <c r="B162" t="n">
-        <v>230.0399932861328</v>
+        <v>225.1399993896484</v>
       </c>
       <c r="C162" t="n">
-        <v>233</v>
+        <v>226.8099975585938</v>
       </c>
       <c r="D162" t="n">
-        <v>229.6499938964844</v>
+        <v>223.3200073242188</v>
       </c>
       <c r="E162" t="n">
-        <v>233</v>
+        <v>225.6699981689453</v>
       </c>
       <c r="F162" t="n">
-        <v>232.7439422607422</v>
+        <v>225.1744079589844</v>
       </c>
       <c r="G162" t="n">
-        <v>54541900</v>
+        <v>34044200</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="B163" t="n">
-        <v>229.5200042724609</v>
+        <v>227.8999938964844</v>
       </c>
       <c r="C163" t="n">
-        <v>229.6499938964844</v>
+        <v>228</v>
       </c>
       <c r="D163" t="n">
-        <v>223.7400054931641</v>
+        <v>224.1300048828125</v>
       </c>
       <c r="E163" t="n">
-        <v>226.2100067138672</v>
+        <v>226.8000030517578</v>
       </c>
       <c r="F163" t="n">
-        <v>225.9614105224609</v>
+        <v>226.3019409179688</v>
       </c>
       <c r="G163" t="n">
-        <v>63285000</v>
+        <v>37245100</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="B164" t="n">
-        <v>225.8899993896484</v>
+        <v>224.5</v>
       </c>
       <c r="C164" t="n">
-        <v>227.3699951171875</v>
+        <v>225.6900024414062</v>
       </c>
       <c r="D164" t="n">
-        <v>223.0200042724609</v>
+        <v>221.3300018310547</v>
       </c>
       <c r="E164" t="n">
-        <v>226.7799987792969</v>
+        <v>221.6900024414062</v>
       </c>
       <c r="F164" t="n">
-        <v>226.5307769775391</v>
+        <v>221.2031555175781</v>
       </c>
       <c r="G164" t="n">
-        <v>32880600</v>
+        <v>39505400</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45568</v>
+        <v>45573</v>
       </c>
       <c r="B165" t="n">
-        <v>225.1399993896484</v>
+        <v>224.3000030517578</v>
       </c>
       <c r="C165" t="n">
-        <v>226.8099975585938</v>
+        <v>225.9799957275391</v>
       </c>
       <c r="D165" t="n">
-        <v>223.3200073242188</v>
+        <v>223.25</v>
       </c>
       <c r="E165" t="n">
-        <v>225.6699981689453</v>
+        <v>225.7700042724609</v>
       </c>
       <c r="F165" t="n">
-        <v>225.4219818115234</v>
+        <v>225.2742004394531</v>
       </c>
       <c r="G165" t="n">
-        <v>34044200</v>
+        <v>31855700</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45569</v>
+        <v>45574</v>
       </c>
       <c r="B166" t="n">
-        <v>227.8999938964844</v>
+        <v>225.2299957275391</v>
       </c>
       <c r="C166" t="n">
-        <v>228</v>
+        <v>229.75</v>
       </c>
       <c r="D166" t="n">
-        <v>224.1300048828125</v>
+        <v>224.8300018310547</v>
       </c>
       <c r="E166" t="n">
-        <v>226.8000030517578</v>
+        <v>229.5399932861328</v>
       </c>
       <c r="F166" t="n">
-        <v>226.5507507324219</v>
+        <v>229.0359191894531</v>
       </c>
       <c r="G166" t="n">
-        <v>37245100</v>
+        <v>33591100</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45572</v>
+        <v>45575</v>
       </c>
       <c r="B167" t="n">
-        <v>224.5</v>
+        <v>227.7799987792969</v>
       </c>
       <c r="C167" t="n">
-        <v>225.6900024414062</v>
+        <v>229.5</v>
       </c>
       <c r="D167" t="n">
-        <v>221.3300018310547</v>
+        <v>227.1699981689453</v>
       </c>
       <c r="E167" t="n">
-        <v>221.6900024414062</v>
+        <v>229.0399932861328</v>
       </c>
       <c r="F167" t="n">
-        <v>221.4463653564453</v>
+        <v>228.5370178222656</v>
       </c>
       <c r="G167" t="n">
-        <v>39505400</v>
+        <v>28183500</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45573</v>
+        <v>45576</v>
       </c>
       <c r="B168" t="n">
-        <v>224.3000030517578</v>
+        <v>229.3000030517578</v>
       </c>
       <c r="C168" t="n">
-        <v>225.9799957275391</v>
+        <v>229.4100036621094</v>
       </c>
       <c r="D168" t="n">
-        <v>223.25</v>
+        <v>227.3399963378906</v>
       </c>
       <c r="E168" t="n">
-        <v>225.7700042724609</v>
+        <v>227.5500030517578</v>
       </c>
       <c r="F168" t="n">
-        <v>225.5218811035156</v>
+        <v>227.05029296875</v>
       </c>
       <c r="G168" t="n">
-        <v>31855700</v>
+        <v>31759200</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45574</v>
+        <v>45579</v>
       </c>
       <c r="B169" t="n">
-        <v>225.2299957275391</v>
+        <v>228.6999969482422</v>
       </c>
       <c r="C169" t="n">
-        <v>229.75</v>
+        <v>231.7299957275391</v>
       </c>
       <c r="D169" t="n">
-        <v>224.8300018310547</v>
+        <v>228.6000061035156</v>
       </c>
       <c r="E169" t="n">
-        <v>229.5399932861328</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="F169" t="n">
-        <v>229.2877349853516</v>
+        <v>230.7920532226562</v>
       </c>
       <c r="G169" t="n">
-        <v>33591100</v>
+        <v>39882100</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45575</v>
+        <v>45580</v>
       </c>
       <c r="B170" t="n">
-        <v>227.7799987792969</v>
+        <v>233.6100006103516</v>
       </c>
       <c r="C170" t="n">
-        <v>229.5</v>
+        <v>237.4900054931641</v>
       </c>
       <c r="D170" t="n">
-        <v>227.1699981689453</v>
+        <v>232.3699951171875</v>
       </c>
       <c r="E170" t="n">
-        <v>229.0399932861328</v>
+        <v>233.8500061035156</v>
       </c>
       <c r="F170" t="n">
-        <v>228.7882843017578</v>
+        <v>233.3364562988281</v>
       </c>
       <c r="G170" t="n">
-        <v>28183500</v>
+        <v>64751400</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45576</v>
+        <v>45581</v>
       </c>
       <c r="B171" t="n">
-        <v>229.3000030517578</v>
+        <v>231.6000061035156</v>
       </c>
       <c r="C171" t="n">
-        <v>229.4100036621094</v>
+        <v>232.1199951171875</v>
       </c>
       <c r="D171" t="n">
-        <v>227.3399963378906</v>
+        <v>229.8399963378906</v>
       </c>
       <c r="E171" t="n">
-        <v>227.5500030517578</v>
+        <v>231.7799987792969</v>
       </c>
       <c r="F171" t="n">
-        <v>227.2999267578125</v>
+        <v>231.27099609375</v>
       </c>
       <c r="G171" t="n">
-        <v>31759200</v>
+        <v>34082200</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45579</v>
+        <v>45582</v>
       </c>
       <c r="B172" t="n">
-        <v>228.6999969482422</v>
+        <v>233.4299926757812</v>
       </c>
       <c r="C172" t="n">
-        <v>231.7299957275391</v>
+        <v>233.8500061035156</v>
       </c>
       <c r="D172" t="n">
-        <v>228.6000061035156</v>
+        <v>230.5200042724609</v>
       </c>
       <c r="E172" t="n">
-        <v>231.3000030517578</v>
+        <v>232.1499938964844</v>
       </c>
       <c r="F172" t="n">
-        <v>231.0458068847656</v>
+        <v>231.6401824951172</v>
       </c>
       <c r="G172" t="n">
-        <v>39882100</v>
+        <v>32993800</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45580</v>
+        <v>45583</v>
       </c>
       <c r="B173" t="n">
-        <v>233.6100006103516</v>
+        <v>236.1799926757812</v>
       </c>
       <c r="C173" t="n">
-        <v>237.4900054931641</v>
+        <v>236.1799926757812</v>
       </c>
       <c r="D173" t="n">
-        <v>232.3699951171875</v>
+        <v>234.0099945068359</v>
       </c>
       <c r="E173" t="n">
-        <v>233.8500061035156</v>
+        <v>235</v>
       </c>
       <c r="F173" t="n">
-        <v>233.5930023193359</v>
+        <v>234.4839172363281</v>
       </c>
       <c r="G173" t="n">
-        <v>64751400</v>
+        <v>46431500</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45581</v>
+        <v>45586</v>
       </c>
       <c r="B174" t="n">
-        <v>231.6000061035156</v>
+        <v>234.4499969482422</v>
       </c>
       <c r="C174" t="n">
-        <v>232.1199951171875</v>
+        <v>236.8500061035156</v>
       </c>
       <c r="D174" t="n">
-        <v>229.8399963378906</v>
+        <v>234.4499969482422</v>
       </c>
       <c r="E174" t="n">
-        <v>231.7799987792969</v>
+        <v>236.4799957275391</v>
       </c>
       <c r="F174" t="n">
-        <v>231.5252685546875</v>
+        <v>235.9606781005859</v>
       </c>
       <c r="G174" t="n">
-        <v>34082200</v>
+        <v>36254500</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45582</v>
+        <v>45587</v>
       </c>
       <c r="B175" t="n">
-        <v>233.4299926757812</v>
+        <v>233.8899993896484</v>
       </c>
       <c r="C175" t="n">
-        <v>233.8500061035156</v>
+        <v>236.2200012207031</v>
       </c>
       <c r="D175" t="n">
-        <v>230.5200042724609</v>
+        <v>232.6000061035156</v>
       </c>
       <c r="E175" t="n">
-        <v>232.1499938964844</v>
+        <v>235.8600006103516</v>
       </c>
       <c r="F175" t="n">
-        <v>231.8948669433594</v>
+        <v>235.342041015625</v>
       </c>
       <c r="G175" t="n">
-        <v>32993800</v>
+        <v>38846600</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45583</v>
+        <v>45588</v>
       </c>
       <c r="B176" t="n">
-        <v>236.1799926757812</v>
+        <v>234.0800018310547</v>
       </c>
       <c r="C176" t="n">
-        <v>236.1799926757812</v>
+        <v>235.1399993896484</v>
       </c>
       <c r="D176" t="n">
-        <v>234.0099945068359</v>
+        <v>227.7599945068359</v>
       </c>
       <c r="E176" t="n">
-        <v>235</v>
+        <v>230.7599945068359</v>
       </c>
       <c r="F176" t="n">
-        <v>234.7417297363281</v>
+        <v>230.2532348632812</v>
       </c>
       <c r="G176" t="n">
-        <v>46431500</v>
+        <v>52287000</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45586</v>
+        <v>45589</v>
       </c>
       <c r="B177" t="n">
-        <v>234.4499969482422</v>
+        <v>229.9799957275391</v>
       </c>
       <c r="C177" t="n">
-        <v>236.8500061035156</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="D177" t="n">
-        <v>234.4499969482422</v>
+        <v>228.4100036621094</v>
       </c>
       <c r="E177" t="n">
-        <v>236.4799957275391</v>
+        <v>230.5700073242188</v>
       </c>
       <c r="F177" t="n">
-        <v>236.2201080322266</v>
+        <v>230.0636749267578</v>
       </c>
       <c r="G177" t="n">
-        <v>36254500</v>
+        <v>31109500</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45587</v>
+        <v>45590</v>
       </c>
       <c r="B178" t="n">
-        <v>233.8899993896484</v>
+        <v>229.7400054931641</v>
       </c>
       <c r="C178" t="n">
-        <v>236.2200012207031</v>
+        <v>233.2200012207031</v>
       </c>
       <c r="D178" t="n">
-        <v>232.6000061035156</v>
+        <v>229.5700073242188</v>
       </c>
       <c r="E178" t="n">
-        <v>235.8600006103516</v>
+        <v>231.4100036621094</v>
       </c>
       <c r="F178" t="n">
-        <v>235.6007995605469</v>
+        <v>230.9018096923828</v>
       </c>
       <c r="G178" t="n">
-        <v>38846600</v>
+        <v>38802300</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45588</v>
+        <v>45593</v>
       </c>
       <c r="B179" t="n">
-        <v>234.0800018310547</v>
+        <v>233.3200073242188</v>
       </c>
       <c r="C179" t="n">
-        <v>235.1399993896484</v>
+        <v>234.7299957275391</v>
       </c>
       <c r="D179" t="n">
-        <v>227.7599945068359</v>
+        <v>232.5500030517578</v>
       </c>
       <c r="E179" t="n">
-        <v>230.7599945068359</v>
+        <v>233.3999938964844</v>
       </c>
       <c r="F179" t="n">
-        <v>230.5063934326172</v>
+        <v>232.8874359130859</v>
       </c>
       <c r="G179" t="n">
-        <v>52287000</v>
+        <v>36087100</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45589</v>
+        <v>45594</v>
       </c>
       <c r="B180" t="n">
-        <v>229.9799957275391</v>
+        <v>233.1000061035156</v>
       </c>
       <c r="C180" t="n">
-        <v>230.8200073242188</v>
+        <v>234.3300018310547</v>
       </c>
       <c r="D180" t="n">
-        <v>228.4100036621094</v>
+        <v>232.3200073242188</v>
       </c>
       <c r="E180" t="n">
-        <v>230.5700073242188</v>
+        <v>233.6699981689453</v>
       </c>
       <c r="F180" t="n">
-        <v>230.3166198730469</v>
+        <v>233.1568450927734</v>
       </c>
       <c r="G180" t="n">
-        <v>31109500</v>
+        <v>35417200</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45590</v>
+        <v>45595</v>
       </c>
       <c r="B181" t="n">
-        <v>229.7400054931641</v>
+        <v>232.6100006103516</v>
       </c>
       <c r="C181" t="n">
-        <v>233.2200012207031</v>
+        <v>233.4700012207031</v>
       </c>
       <c r="D181" t="n">
-        <v>229.5700073242188</v>
+        <v>229.5500030517578</v>
       </c>
       <c r="E181" t="n">
-        <v>231.4100036621094</v>
+        <v>230.1000061035156</v>
       </c>
       <c r="F181" t="n">
-        <v>231.1556854248047</v>
+        <v>229.5946807861328</v>
       </c>
       <c r="G181" t="n">
-        <v>38802300</v>
+        <v>47070900</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45593</v>
+        <v>45596</v>
       </c>
       <c r="B182" t="n">
-        <v>233.3200073242188</v>
+        <v>229.3399963378906</v>
       </c>
       <c r="C182" t="n">
-        <v>234.7299957275391</v>
+        <v>229.8300018310547</v>
       </c>
       <c r="D182" t="n">
-        <v>232.5500030517578</v>
+        <v>225.3699951171875</v>
       </c>
       <c r="E182" t="n">
-        <v>233.3999938964844</v>
+        <v>225.9100036621094</v>
       </c>
       <c r="F182" t="n">
-        <v>233.1434936523438</v>
+        <v>225.4138946533203</v>
       </c>
       <c r="G182" t="n">
-        <v>36087100</v>
+        <v>64370100</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45594</v>
+        <v>45597</v>
       </c>
       <c r="B183" t="n">
-        <v>233.1000061035156</v>
+        <v>220.9700012207031</v>
       </c>
       <c r="C183" t="n">
-        <v>234.3300018310547</v>
+        <v>225.3500061035156</v>
       </c>
       <c r="D183" t="n">
-        <v>232.3200073242188</v>
+        <v>220.2700042724609</v>
       </c>
       <c r="E183" t="n">
-        <v>233.6699981689453</v>
+        <v>222.9100036621094</v>
       </c>
       <c r="F183" t="n">
-        <v>233.4131927490234</v>
+        <v>222.4204711914062</v>
       </c>
       <c r="G183" t="n">
-        <v>35417200</v>
+        <v>65276700</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45595</v>
+        <v>45600</v>
       </c>
       <c r="B184" t="n">
-        <v>232.6100006103516</v>
+        <v>220.9900054931641</v>
       </c>
       <c r="C184" t="n">
-        <v>233.4700012207031</v>
+        <v>222.7899932861328</v>
       </c>
       <c r="D184" t="n">
-        <v>229.5500030517578</v>
+        <v>219.7100067138672</v>
       </c>
       <c r="E184" t="n">
-        <v>230.1000061035156</v>
+        <v>222.0099945068359</v>
       </c>
       <c r="F184" t="n">
-        <v>229.8471221923828</v>
+        <v>221.5224456787109</v>
       </c>
       <c r="G184" t="n">
-        <v>47070900</v>
+        <v>44944500</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45596</v>
+        <v>45601</v>
       </c>
       <c r="B185" t="n">
-        <v>229.3399963378906</v>
+        <v>221.8000030517578</v>
       </c>
       <c r="C185" t="n">
-        <v>229.8300018310547</v>
+        <v>223.9499969482422</v>
       </c>
       <c r="D185" t="n">
-        <v>225.3699951171875</v>
+        <v>221.1399993896484</v>
       </c>
       <c r="E185" t="n">
-        <v>225.9100036621094</v>
+        <v>223.4499969482422</v>
       </c>
       <c r="F185" t="n">
-        <v>225.6617279052734</v>
+        <v>222.9592895507812</v>
       </c>
       <c r="G185" t="n">
-        <v>64370100</v>
+        <v>28111300</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45597</v>
+        <v>45602</v>
       </c>
       <c r="B186" t="n">
-        <v>220.9700012207031</v>
+        <v>222.6100006103516</v>
       </c>
       <c r="C186" t="n">
-        <v>225.3500061035156</v>
+        <v>226.0700073242188</v>
       </c>
       <c r="D186" t="n">
-        <v>220.2700042724609</v>
+        <v>221.1900024414062</v>
       </c>
       <c r="E186" t="n">
-        <v>222.9100036621094</v>
+        <v>222.7200012207031</v>
       </c>
       <c r="F186" t="n">
-        <v>222.6650238037109</v>
+        <v>222.2308959960938</v>
       </c>
       <c r="G186" t="n">
-        <v>65276700</v>
+        <v>54561100</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45600</v>
+        <v>45603</v>
       </c>
       <c r="B187" t="n">
-        <v>220.9900054931641</v>
+        <v>224.6300048828125</v>
       </c>
       <c r="C187" t="n">
-        <v>222.7899932861328</v>
+        <v>227.8800048828125</v>
       </c>
       <c r="D187" t="n">
-        <v>219.7100067138672</v>
+        <v>224.5700073242188</v>
       </c>
       <c r="E187" t="n">
-        <v>222.0099945068359</v>
+        <v>227.4799957275391</v>
       </c>
       <c r="F187" t="n">
-        <v>221.7660064697266</v>
+        <v>226.9804382324219</v>
       </c>
       <c r="G187" t="n">
-        <v>44944500</v>
+        <v>42137700</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45601</v>
+        <v>45604</v>
       </c>
       <c r="B188" t="n">
-        <v>221.8000030517578</v>
+        <v>227.1699981689453</v>
       </c>
       <c r="C188" t="n">
-        <v>223.9499969482422</v>
+        <v>228.6600036621094</v>
       </c>
       <c r="D188" t="n">
-        <v>221.1399993896484</v>
+        <v>226.4100036621094</v>
       </c>
       <c r="E188" t="n">
-        <v>223.4499969482422</v>
+        <v>226.9600067138672</v>
       </c>
       <c r="F188" t="n">
-        <v>223.2044219970703</v>
+        <v>226.7107391357422</v>
       </c>
       <c r="G188" t="n">
-        <v>28111300</v>
+        <v>38328800</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45602</v>
+        <v>45607</v>
       </c>
       <c r="B189" t="n">
-        <v>222.6100006103516</v>
+        <v>225</v>
       </c>
       <c r="C189" t="n">
-        <v>226.0700073242188</v>
+        <v>225.6999969482422</v>
       </c>
       <c r="D189" t="n">
-        <v>221.1900024414062</v>
+        <v>221.5</v>
       </c>
       <c r="E189" t="n">
-        <v>222.7200012207031</v>
+        <v>224.2299957275391</v>
       </c>
       <c r="F189" t="n">
-        <v>222.4752349853516</v>
+        <v>223.9837341308594</v>
       </c>
       <c r="G189" t="n">
-        <v>54561100</v>
+        <v>42005600</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45603</v>
+        <v>45608</v>
       </c>
       <c r="B190" t="n">
-        <v>224.6300048828125</v>
+        <v>224.5500030517578</v>
       </c>
       <c r="C190" t="n">
-        <v>227.8800048828125</v>
+        <v>225.5899963378906</v>
       </c>
       <c r="D190" t="n">
-        <v>224.5700073242188</v>
+        <v>223.3600006103516</v>
       </c>
       <c r="E190" t="n">
-        <v>227.4799957275391</v>
+        <v>224.2299957275391</v>
       </c>
       <c r="F190" t="n">
-        <v>227.2299957275391</v>
+        <v>223.9837341308594</v>
       </c>
       <c r="G190" t="n">
-        <v>42137700</v>
+        <v>40398300</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45604</v>
+        <v>45609</v>
       </c>
       <c r="B191" t="n">
-        <v>227.1699981689453</v>
+        <v>224.0099945068359</v>
       </c>
       <c r="C191" t="n">
-        <v>228.6600036621094</v>
+        <v>226.6499938964844</v>
       </c>
       <c r="D191" t="n">
-        <v>226.4100036621094</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="E191" t="n">
-        <v>226.9600067138672</v>
+        <v>225.1199951171875</v>
       </c>
       <c r="F191" t="n">
-        <v>226.9600067138672</v>
+        <v>224.8727569580078</v>
       </c>
       <c r="G191" t="n">
-        <v>38328800</v>
+        <v>48566200</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45607</v>
+        <v>45610</v>
       </c>
       <c r="B192" t="n">
+        <v>225.0200042724609</v>
+      </c>
+      <c r="C192" t="n">
+        <v>228.8699951171875</v>
+      </c>
+      <c r="D192" t="n">
         <v>225</v>
       </c>
-      <c r="C192" t="n">
-        <v>225.6999969482422</v>
-      </c>
-      <c r="D192" t="n">
-        <v>221.5</v>
-      </c>
       <c r="E192" t="n">
-        <v>224.2299957275391</v>
+        <v>228.2200012207031</v>
       </c>
       <c r="F192" t="n">
-        <v>224.2299957275391</v>
+        <v>227.9693603515625</v>
       </c>
       <c r="G192" t="n">
-        <v>42005600</v>
+        <v>44923900</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45608</v>
+        <v>45611</v>
       </c>
       <c r="B193" t="n">
-        <v>224.5500030517578</v>
+        <v>226.3999938964844</v>
       </c>
       <c r="C193" t="n">
-        <v>225.5899963378906</v>
+        <v>226.9199981689453</v>
       </c>
       <c r="D193" t="n">
-        <v>223.3600006103516</v>
+        <v>224.2700042724609</v>
       </c>
       <c r="E193" t="n">
-        <v>224.2299957275391</v>
+        <v>225</v>
       </c>
       <c r="F193" t="n">
-        <v>224.2299957275391</v>
+        <v>224.7528839111328</v>
       </c>
       <c r="G193" t="n">
-        <v>40398300</v>
+        <v>47923700</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45609</v>
+        <v>45614</v>
       </c>
       <c r="B194" t="n">
-        <v>224.0099945068359</v>
+        <v>225.25</v>
       </c>
       <c r="C194" t="n">
-        <v>226.6499938964844</v>
+        <v>229.7400054931641</v>
       </c>
       <c r="D194" t="n">
-        <v>222.7599945068359</v>
+        <v>225.1699981689453</v>
       </c>
       <c r="E194" t="n">
-        <v>225.1199951171875</v>
+        <v>228.0200042724609</v>
       </c>
       <c r="F194" t="n">
-        <v>225.1199951171875</v>
+        <v>227.7695770263672</v>
       </c>
       <c r="G194" t="n">
-        <v>48566200</v>
+        <v>44686000</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45610</v>
+        <v>45615</v>
       </c>
       <c r="B195" t="n">
-        <v>225.0200042724609</v>
+        <v>226.9799957275391</v>
       </c>
       <c r="C195" t="n">
-        <v>228.8699951171875</v>
+        <v>230.1600036621094</v>
       </c>
       <c r="D195" t="n">
-        <v>225</v>
+        <v>226.6600036621094</v>
       </c>
       <c r="E195" t="n">
-        <v>228.2200012207031</v>
+        <v>228.2799987792969</v>
       </c>
       <c r="F195" t="n">
-        <v>228.2200012207031</v>
+        <v>228.0292816162109</v>
       </c>
       <c r="G195" t="n">
-        <v>44923900</v>
+        <v>36211800</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45611</v>
+        <v>45616</v>
       </c>
       <c r="B196" t="n">
-        <v>226.3999938964844</v>
+        <v>228.0599975585938</v>
       </c>
       <c r="C196" t="n">
-        <v>226.9199981689453</v>
+        <v>229.9299926757812</v>
       </c>
       <c r="D196" t="n">
-        <v>224.2700042724609</v>
+        <v>225.8899993896484</v>
       </c>
       <c r="E196" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F196" t="n">
-        <v>225</v>
+        <v>228.7484893798828</v>
       </c>
       <c r="G196" t="n">
-        <v>47923700</v>
+        <v>35169600</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45614</v>
+        <v>45617</v>
       </c>
       <c r="B197" t="n">
-        <v>225.25</v>
+        <v>228.8800048828125</v>
       </c>
       <c r="C197" t="n">
-        <v>229.7400054931641</v>
+        <v>230.1600036621094</v>
       </c>
       <c r="D197" t="n">
-        <v>225.1699981689453</v>
+        <v>225.7100067138672</v>
       </c>
       <c r="E197" t="n">
-        <v>228.0200042724609</v>
+        <v>228.5200042724609</v>
       </c>
       <c r="F197" t="n">
-        <v>228.0200042724609</v>
+        <v>228.2690277099609</v>
       </c>
       <c r="G197" t="n">
-        <v>44686000</v>
+        <v>42108300</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45615</v>
+        <v>45618</v>
       </c>
       <c r="B198" t="n">
-        <v>226.9799957275391</v>
+        <v>228.0599975585938</v>
       </c>
       <c r="C198" t="n">
-        <v>230.1600036621094</v>
+        <v>230.7200012207031</v>
       </c>
       <c r="D198" t="n">
-        <v>226.6600036621094</v>
+        <v>228.0599975585938</v>
       </c>
       <c r="E198" t="n">
-        <v>228.2799987792969</v>
+        <v>229.8699951171875</v>
       </c>
       <c r="F198" t="n">
-        <v>228.2799987792969</v>
+        <v>229.6175384521484</v>
       </c>
       <c r="G198" t="n">
-        <v>36211800</v>
+        <v>38168300</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45616</v>
+        <v>45621</v>
       </c>
       <c r="B199" t="n">
-        <v>228.0599975585938</v>
+        <v>231.4600067138672</v>
       </c>
       <c r="C199" t="n">
-        <v>229.9299926757812</v>
+        <v>233.25</v>
       </c>
       <c r="D199" t="n">
-        <v>225.8899993896484</v>
+        <v>229.7400054931641</v>
       </c>
       <c r="E199" t="n">
-        <v>229</v>
+        <v>232.8699951171875</v>
       </c>
       <c r="F199" t="n">
-        <v>229</v>
+        <v>232.6142425537109</v>
       </c>
       <c r="G199" t="n">
-        <v>35169600</v>
+        <v>90152800</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45617</v>
+        <v>45622</v>
       </c>
       <c r="B200" t="n">
-        <v>228.8800048828125</v>
+        <v>233.3300018310547</v>
       </c>
       <c r="C200" t="n">
-        <v>230.1600036621094</v>
+        <v>235.5700073242188</v>
       </c>
       <c r="D200" t="n">
-        <v>225.7100067138672</v>
+        <v>233.3300018310547</v>
       </c>
       <c r="E200" t="n">
-        <v>228.5200042724609</v>
+        <v>235.0599975585938</v>
       </c>
       <c r="F200" t="n">
-        <v>228.5200042724609</v>
+        <v>234.8018341064453</v>
       </c>
       <c r="G200" t="n">
-        <v>42108300</v>
+        <v>45986200</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45618</v>
+        <v>45623</v>
       </c>
       <c r="B201" t="n">
-        <v>228.0599975585938</v>
+        <v>234.4700012207031</v>
       </c>
       <c r="C201" t="n">
-        <v>230.7200012207031</v>
+        <v>235.6900024414062</v>
       </c>
       <c r="D201" t="n">
-        <v>228.0599975585938</v>
+        <v>233.8099975585938</v>
       </c>
       <c r="E201" t="n">
-        <v>229.8699951171875</v>
+        <v>234.9299926757812</v>
       </c>
       <c r="F201" t="n">
-        <v>229.8699951171875</v>
+        <v>234.6719818115234</v>
       </c>
       <c r="G201" t="n">
-        <v>38168300</v>
+        <v>33498400</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45621</v>
+        <v>45625</v>
       </c>
       <c r="B202" t="n">
-        <v>231.4600067138672</v>
+        <v>234.8099975585938</v>
       </c>
       <c r="C202" t="n">
-        <v>233.25</v>
+        <v>237.8099975585938</v>
       </c>
       <c r="D202" t="n">
-        <v>229.7400054931641</v>
+        <v>233.9700012207031</v>
       </c>
       <c r="E202" t="n">
-        <v>232.8699951171875</v>
+        <v>237.3300018310547</v>
       </c>
       <c r="F202" t="n">
-        <v>232.8699951171875</v>
+        <v>237.0693511962891</v>
       </c>
       <c r="G202" t="n">
-        <v>90152800</v>
+        <v>28481400</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45622</v>
+        <v>45628</v>
       </c>
       <c r="B203" t="n">
-        <v>233.3300018310547</v>
+        <v>237.2700042724609</v>
       </c>
       <c r="C203" t="n">
-        <v>235.5700073242188</v>
+        <v>240.7899932861328</v>
       </c>
       <c r="D203" t="n">
-        <v>233.3300018310547</v>
+        <v>237.1600036621094</v>
       </c>
       <c r="E203" t="n">
-        <v>235.0599975585938</v>
+        <v>239.5899963378906</v>
       </c>
       <c r="F203" t="n">
-        <v>235.0599975585938</v>
+        <v>239.3268585205078</v>
       </c>
       <c r="G203" t="n">
-        <v>45986200</v>
+        <v>48137100</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45623</v>
+        <v>45629</v>
       </c>
       <c r="B204" t="n">
-        <v>234.4700012207031</v>
+        <v>239.8099975585938</v>
       </c>
       <c r="C204" t="n">
-        <v>235.6900024414062</v>
+        <v>242.7599945068359</v>
       </c>
       <c r="D204" t="n">
-        <v>233.8099975585938</v>
+        <v>238.8999938964844</v>
       </c>
       <c r="E204" t="n">
-        <v>234.9299926757812</v>
+        <v>242.6499938964844</v>
       </c>
       <c r="F204" t="n">
-        <v>234.9299926757812</v>
+        <v>242.3834991455078</v>
       </c>
       <c r="G204" t="n">
-        <v>33498400</v>
+        <v>38861000</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45625</v>
+        <v>45630</v>
       </c>
       <c r="B205" t="n">
-        <v>234.8099975585938</v>
+        <v>242.8699951171875</v>
       </c>
       <c r="C205" t="n">
-        <v>237.8099975585938</v>
+        <v>244.1100006103516</v>
       </c>
       <c r="D205" t="n">
-        <v>233.9700012207031</v>
+        <v>241.25</v>
       </c>
       <c r="E205" t="n">
-        <v>237.3300018310547</v>
+        <v>243.0099945068359</v>
       </c>
       <c r="F205" t="n">
-        <v>237.3300018310547</v>
+        <v>242.7431030273438</v>
       </c>
       <c r="G205" t="n">
-        <v>28481400</v>
+        <v>44383900</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="B206" t="n">
-        <v>237.2700042724609</v>
+        <v>243.9900054931641</v>
       </c>
       <c r="C206" t="n">
-        <v>240.7899932861328</v>
+        <v>244.5399932861328</v>
       </c>
       <c r="D206" t="n">
-        <v>237.1600036621094</v>
+        <v>242.1300048828125</v>
       </c>
       <c r="E206" t="n">
-        <v>239.5899963378906</v>
+        <v>243.0399932861328</v>
       </c>
       <c r="F206" t="n">
-        <v>239.5899963378906</v>
+        <v>242.7730712890625</v>
       </c>
       <c r="G206" t="n">
-        <v>48137100</v>
+        <v>40033900</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="B207" t="n">
-        <v>239.8099975585938</v>
+        <v>242.9100036621094</v>
       </c>
       <c r="C207" t="n">
-        <v>242.7599945068359</v>
+        <v>244.6300048828125</v>
       </c>
       <c r="D207" t="n">
-        <v>238.8999938964844</v>
+        <v>242.0800018310547</v>
       </c>
       <c r="E207" t="n">
-        <v>242.6499938964844</v>
+        <v>242.8399963378906</v>
       </c>
       <c r="F207" t="n">
-        <v>242.6499938964844</v>
+        <v>242.5732879638672</v>
       </c>
       <c r="G207" t="n">
-        <v>38861000</v>
+        <v>36870600</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45630</v>
+        <v>45635</v>
       </c>
       <c r="B208" t="n">
-        <v>242.8699951171875</v>
+        <v>241.8300018310547</v>
       </c>
       <c r="C208" t="n">
-        <v>244.1100006103516</v>
+        <v>247.2400054931641</v>
       </c>
       <c r="D208" t="n">
-        <v>241.25</v>
+        <v>241.75</v>
       </c>
       <c r="E208" t="n">
-        <v>243.0099945068359</v>
+        <v>246.75</v>
       </c>
       <c r="F208" t="n">
-        <v>243.0099945068359</v>
+        <v>246.47900390625</v>
       </c>
       <c r="G208" t="n">
-        <v>44383900</v>
+        <v>44649200</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45631</v>
+        <v>45636</v>
       </c>
       <c r="B209" t="n">
-        <v>243.9900054931641</v>
+        <v>246.8899993896484</v>
       </c>
       <c r="C209" t="n">
-        <v>244.5399932861328</v>
+        <v>248.2100067138672</v>
       </c>
       <c r="D209" t="n">
-        <v>242.1300048828125</v>
+        <v>245.3399963378906</v>
       </c>
       <c r="E209" t="n">
-        <v>243.0399932861328</v>
+        <v>247.7700042724609</v>
       </c>
       <c r="F209" t="n">
-        <v>243.0399932861328</v>
+        <v>247.4978790283203</v>
       </c>
       <c r="G209" t="n">
-        <v>40033900</v>
+        <v>36914800</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="B210" t="n">
-        <v>242.9100036621094</v>
+        <v>247.9600067138672</v>
       </c>
       <c r="C210" t="n">
-        <v>244.6300048828125</v>
+        <v>250.8000030517578</v>
       </c>
       <c r="D210" t="n">
-        <v>242.0800018310547</v>
+        <v>246.2599945068359</v>
       </c>
       <c r="E210" t="n">
-        <v>242.8399963378906</v>
+        <v>246.4900054931641</v>
       </c>
       <c r="F210" t="n">
-        <v>242.8399963378906</v>
+        <v>246.2192840576172</v>
       </c>
       <c r="G210" t="n">
-        <v>36870600</v>
+        <v>45205800</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="B211" t="n">
-        <v>241.8300018310547</v>
+        <v>246.8899993896484</v>
       </c>
       <c r="C211" t="n">
-        <v>247.2400054931641</v>
+        <v>248.7400054931641</v>
       </c>
       <c r="D211" t="n">
-        <v>241.75</v>
+        <v>245.6799926757812</v>
       </c>
       <c r="E211" t="n">
-        <v>246.75</v>
+        <v>247.9600067138672</v>
       </c>
       <c r="F211" t="n">
-        <v>246.75</v>
+        <v>247.6876831054688</v>
       </c>
       <c r="G211" t="n">
-        <v>44649200</v>
+        <v>32777500</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="B212" t="n">
-        <v>246.8899993896484</v>
+        <v>247.8200073242188</v>
       </c>
       <c r="C212" t="n">
-        <v>248.2100067138672</v>
+        <v>249.2899932861328</v>
       </c>
       <c r="D212" t="n">
-        <v>245.3399963378906</v>
+        <v>246.2400054931641</v>
       </c>
       <c r="E212" t="n">
-        <v>247.7700042724609</v>
+        <v>248.1300048828125</v>
       </c>
       <c r="F212" t="n">
-        <v>247.7700042724609</v>
+        <v>247.8574829101562</v>
       </c>
       <c r="G212" t="n">
-        <v>36914800</v>
+        <v>33155300</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45637</v>
+        <v>45642</v>
       </c>
       <c r="B213" t="n">
-        <v>247.9600067138672</v>
+        <v>247.9900054931641</v>
       </c>
       <c r="C213" t="n">
-        <v>250.8000030517578</v>
+        <v>251.3800048828125</v>
       </c>
       <c r="D213" t="n">
-        <v>246.2599945068359</v>
+        <v>247.6499938964844</v>
       </c>
       <c r="E213" t="n">
-        <v>246.4900054931641</v>
+        <v>251.0399932861328</v>
       </c>
       <c r="F213" t="n">
-        <v>246.4900054931641</v>
+        <v>250.7642822265625</v>
       </c>
       <c r="G213" t="n">
-        <v>45205800</v>
+        <v>51694800</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45638</v>
+        <v>45643</v>
       </c>
       <c r="B214" t="n">
-        <v>246.8899993896484</v>
+        <v>250.0800018310547</v>
       </c>
       <c r="C214" t="n">
-        <v>248.7400054931641</v>
+        <v>253.8300018310547</v>
       </c>
       <c r="D214" t="n">
-        <v>245.6799926757812</v>
+        <v>249.7799987792969</v>
       </c>
       <c r="E214" t="n">
-        <v>247.9600067138672</v>
+        <v>253.4799957275391</v>
       </c>
       <c r="F214" t="n">
-        <v>247.9600067138672</v>
+        <v>253.2015991210938</v>
       </c>
       <c r="G214" t="n">
-        <v>32777500</v>
+        <v>51356400</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45639</v>
+        <v>45644</v>
       </c>
       <c r="B215" t="n">
-        <v>247.8200073242188</v>
+        <v>252.1600036621094</v>
       </c>
       <c r="C215" t="n">
-        <v>249.2899932861328</v>
+        <v>254.2799987792969</v>
       </c>
       <c r="D215" t="n">
-        <v>246.2400054931641</v>
+        <v>247.7400054931641</v>
       </c>
       <c r="E215" t="n">
-        <v>248.1300048828125</v>
+        <v>248.0500030517578</v>
       </c>
       <c r="F215" t="n">
-        <v>248.1300048828125</v>
+        <v>247.7775726318359</v>
       </c>
       <c r="G215" t="n">
-        <v>33155300</v>
+        <v>56774100</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45642</v>
+        <v>45645</v>
       </c>
       <c r="B216" t="n">
-        <v>247.9900054931641</v>
+        <v>247.5</v>
       </c>
       <c r="C216" t="n">
-        <v>251.3800048828125</v>
+        <v>252</v>
       </c>
       <c r="D216" t="n">
-        <v>247.6499938964844</v>
+        <v>247.0899963378906</v>
       </c>
       <c r="E216" t="n">
-        <v>251.0399932861328</v>
+        <v>249.7899932861328</v>
       </c>
       <c r="F216" t="n">
-        <v>251.0399932861328</v>
+        <v>249.5156555175781</v>
       </c>
       <c r="G216" t="n">
-        <v>51694800</v>
+        <v>60882300</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45643</v>
+        <v>45646</v>
       </c>
       <c r="B217" t="n">
-        <v>250.0800018310547</v>
+        <v>248.0399932861328</v>
       </c>
       <c r="C217" t="n">
-        <v>253.8300018310547</v>
+        <v>255</v>
       </c>
       <c r="D217" t="n">
-        <v>249.7799987792969</v>
+        <v>245.6900024414062</v>
       </c>
       <c r="E217" t="n">
-        <v>253.4799957275391</v>
+        <v>254.4900054931641</v>
       </c>
       <c r="F217" t="n">
-        <v>253.4799957275391</v>
+        <v>254.2105102539062</v>
       </c>
       <c r="G217" t="n">
-        <v>51356400</v>
+        <v>147495300</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45644</v>
+        <v>45649</v>
       </c>
       <c r="B218" t="n">
-        <v>252.1600036621094</v>
+        <v>254.7700042724609</v>
       </c>
       <c r="C218" t="n">
-        <v>254.2799987792969</v>
+        <v>255.6499938964844</v>
       </c>
       <c r="D218" t="n">
-        <v>247.7400054931641</v>
+        <v>253.4499969482422</v>
       </c>
       <c r="E218" t="n">
-        <v>248.0500030517578</v>
+        <v>255.2700042724609</v>
       </c>
       <c r="F218" t="n">
-        <v>248.0500030517578</v>
+        <v>254.9896545410156</v>
       </c>
       <c r="G218" t="n">
-        <v>56774100</v>
+        <v>40858800</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45645</v>
+        <v>45650</v>
       </c>
       <c r="B219" t="n">
-        <v>247.5</v>
+        <v>255.4900054931641</v>
       </c>
       <c r="C219" t="n">
-        <v>252</v>
+        <v>258.2099914550781</v>
       </c>
       <c r="D219" t="n">
-        <v>247.0899963378906</v>
+        <v>255.2899932861328</v>
       </c>
       <c r="E219" t="n">
-        <v>249.7899932861328</v>
+        <v>258.2000122070312</v>
       </c>
       <c r="F219" t="n">
-        <v>249.7899932861328</v>
+        <v>257.9164428710938</v>
       </c>
       <c r="G219" t="n">
-        <v>60882300</v>
+        <v>23234700</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="B220" t="n">
-        <v>248.0399932861328</v>
+        <v>258.1900024414062</v>
       </c>
       <c r="C220" t="n">
-        <v>255</v>
+        <v>260.1000061035156</v>
       </c>
       <c r="D220" t="n">
-        <v>245.6900024414062</v>
+        <v>257.6300048828125</v>
       </c>
       <c r="E220" t="n">
-        <v>254.4900054931641</v>
+        <v>259.0199890136719</v>
       </c>
       <c r="F220" t="n">
-        <v>254.4900054931641</v>
+        <v>258.7355041503906</v>
       </c>
       <c r="G220" t="n">
-        <v>147495300</v>
+        <v>27237100</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45649</v>
+        <v>45653</v>
       </c>
       <c r="B221" t="n">
-        <v>254.7700042724609</v>
+        <v>257.8299865722656</v>
       </c>
       <c r="C221" t="n">
-        <v>255.6499938964844</v>
+        <v>258.7000122070312</v>
       </c>
       <c r="D221" t="n">
-        <v>253.4499969482422</v>
+        <v>253.0599975585938</v>
       </c>
       <c r="E221" t="n">
-        <v>255.2700042724609</v>
+        <v>255.5899963378906</v>
       </c>
       <c r="F221" t="n">
-        <v>255.2700042724609</v>
+        <v>255.3092956542969</v>
       </c>
       <c r="G221" t="n">
-        <v>40858800</v>
+        <v>42355300</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="B222" t="n">
-        <v>255.4900054931641</v>
+        <v>252.2299957275391</v>
       </c>
       <c r="C222" t="n">
-        <v>258.2099914550781</v>
+        <v>253.5</v>
       </c>
       <c r="D222" t="n">
-        <v>255.2899932861328</v>
+        <v>250.75</v>
       </c>
       <c r="E222" t="n">
-        <v>258.2000122070312</v>
+        <v>252.1999969482422</v>
       </c>
       <c r="F222" t="n">
-        <v>258.2000122070312</v>
+        <v>251.9230194091797</v>
       </c>
       <c r="G222" t="n">
-        <v>23234700</v>
+        <v>35557500</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45652</v>
+        <v>45657</v>
       </c>
       <c r="B223" t="n">
-        <v>258.1900024414062</v>
+        <v>252.4400024414062</v>
       </c>
       <c r="C223" t="n">
-        <v>260.1000061035156</v>
+        <v>253.2799987792969</v>
       </c>
       <c r="D223" t="n">
-        <v>257.6300048828125</v>
+        <v>249.4299926757812</v>
       </c>
       <c r="E223" t="n">
-        <v>259.0199890136719</v>
+        <v>250.4199981689453</v>
       </c>
       <c r="F223" t="n">
-        <v>259.0199890136719</v>
+        <v>250.1449737548828</v>
       </c>
       <c r="G223" t="n">
-        <v>27237100</v>
+        <v>39480700</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45653</v>
+        <v>45659</v>
       </c>
       <c r="B224" t="n">
-        <v>257.8299865722656</v>
+        <v>248.9299926757812</v>
       </c>
       <c r="C224" t="n">
-        <v>258.7000122070312</v>
+        <v>249.1000061035156</v>
       </c>
       <c r="D224" t="n">
-        <v>253.0599975585938</v>
+        <v>241.8200073242188</v>
       </c>
       <c r="E224" t="n">
-        <v>255.5899963378906</v>
+        <v>243.8500061035156</v>
       </c>
       <c r="F224" t="n">
-        <v>255.5899963378906</v>
+        <v>243.5821990966797</v>
       </c>
       <c r="G224" t="n">
-        <v>42355300</v>
+        <v>55740700</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45656</v>
+        <v>45660</v>
       </c>
       <c r="B225" t="n">
-        <v>252.2299957275391</v>
+        <v>243.3600006103516</v>
       </c>
       <c r="C225" t="n">
-        <v>253.5</v>
+        <v>244.1799926757812</v>
       </c>
       <c r="D225" t="n">
-        <v>250.75</v>
+        <v>241.8899993896484</v>
       </c>
       <c r="E225" t="n">
-        <v>252.1999969482422</v>
+        <v>243.3600006103516</v>
       </c>
       <c r="F225" t="n">
-        <v>252.1999969482422</v>
+        <v>243.0927276611328</v>
       </c>
       <c r="G225" t="n">
-        <v>35557500</v>
+        <v>40244100</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45657</v>
+        <v>45663</v>
       </c>
       <c r="B226" t="n">
-        <v>252.4400024414062</v>
+        <v>244.3099975585938</v>
       </c>
       <c r="C226" t="n">
-        <v>253.2799987792969</v>
+        <v>247.3300018310547</v>
       </c>
       <c r="D226" t="n">
-        <v>249.4299926757812</v>
+        <v>243.1999969482422</v>
       </c>
       <c r="E226" t="n">
-        <v>250.4199981689453</v>
+        <v>245</v>
       </c>
       <c r="F226" t="n">
-        <v>250.4199981689453</v>
+        <v>244.7309265136719</v>
       </c>
       <c r="G226" t="n">
-        <v>39480700</v>
+        <v>45045600</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45659</v>
+        <v>45664</v>
       </c>
       <c r="B227" t="n">
-        <v>248.9299926757812</v>
+        <v>242.9799957275391</v>
       </c>
       <c r="C227" t="n">
-        <v>249.1000061035156</v>
+        <v>245.5500030517578</v>
       </c>
       <c r="D227" t="n">
-        <v>241.8200073242188</v>
+        <v>241.3500061035156</v>
       </c>
       <c r="E227" t="n">
-        <v>243.8500061035156</v>
+        <v>242.2100067138672</v>
       </c>
       <c r="F227" t="n">
-        <v>243.8500061035156</v>
+        <v>241.9440002441406</v>
       </c>
       <c r="G227" t="n">
-        <v>55740700</v>
+        <v>40856000</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45660</v>
+        <v>45665</v>
       </c>
       <c r="B228" t="n">
-        <v>243.3600006103516</v>
+        <v>241.9199981689453</v>
       </c>
       <c r="C228" t="n">
-        <v>244.1799926757812</v>
+        <v>243.7100067138672</v>
       </c>
       <c r="D228" t="n">
-        <v>241.8899993896484</v>
+        <v>240.0500030517578</v>
       </c>
       <c r="E228" t="n">
-        <v>243.3600006103516</v>
+        <v>242.6999969482422</v>
       </c>
       <c r="F228" t="n">
-        <v>243.3600006103516</v>
+        <v>242.4334411621094</v>
       </c>
       <c r="G228" t="n">
-        <v>40244100</v>
+        <v>37628900</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45663</v>
+        <v>45667</v>
       </c>
       <c r="B229" t="n">
-        <v>244.3099975585938</v>
+        <v>240.0099945068359</v>
       </c>
       <c r="C229" t="n">
-        <v>247.3300018310547</v>
+        <v>240.1600036621094</v>
       </c>
       <c r="D229" t="n">
-        <v>243.1999969482422</v>
+        <v>233</v>
       </c>
       <c r="E229" t="n">
-        <v>245</v>
+        <v>236.8500061035156</v>
       </c>
       <c r="F229" t="n">
-        <v>245</v>
+        <v>236.5898742675781</v>
       </c>
       <c r="G229" t="n">
-        <v>45045600</v>
+        <v>61710900</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45664</v>
+        <v>45670</v>
       </c>
       <c r="B230" t="n">
-        <v>242.9799957275391</v>
+        <v>233.5299987792969</v>
       </c>
       <c r="C230" t="n">
-        <v>245.5500030517578</v>
+        <v>234.6699981689453</v>
       </c>
       <c r="D230" t="n">
-        <v>241.3500061035156</v>
+        <v>229.7200012207031</v>
       </c>
       <c r="E230" t="n">
-        <v>242.2100067138672</v>
+        <v>234.3999938964844</v>
       </c>
       <c r="F230" t="n">
-        <v>242.2100067138672</v>
+        <v>234.1425628662109</v>
       </c>
       <c r="G230" t="n">
-        <v>40856000</v>
+        <v>49630700</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45665</v>
+        <v>45671</v>
       </c>
       <c r="B231" t="n">
-        <v>241.9199981689453</v>
+        <v>234.75</v>
       </c>
       <c r="C231" t="n">
-        <v>243.7100067138672</v>
+        <v>236.1199951171875</v>
       </c>
       <c r="D231" t="n">
-        <v>240.0500030517578</v>
+        <v>232.4700012207031</v>
       </c>
       <c r="E231" t="n">
-        <v>242.6999969482422</v>
+        <v>233.2799987792969</v>
       </c>
       <c r="F231" t="n">
-        <v>242.6999969482422</v>
+        <v>233.0237884521484</v>
       </c>
       <c r="G231" t="n">
-        <v>37628900</v>
+        <v>39435300</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45667</v>
+        <v>45672</v>
       </c>
       <c r="B232" t="n">
-        <v>240.0099945068359</v>
+        <v>234.6399993896484</v>
       </c>
       <c r="C232" t="n">
-        <v>240.1600036621094</v>
+        <v>238.9600067138672</v>
       </c>
       <c r="D232" t="n">
-        <v>233</v>
+        <v>234.4299926757812</v>
       </c>
       <c r="E232" t="n">
-        <v>236.8500061035156</v>
+        <v>237.8699951171875</v>
       </c>
       <c r="F232" t="n">
-        <v>236.8500061035156</v>
+        <v>237.6087493896484</v>
       </c>
       <c r="G232" t="n">
-        <v>61710900</v>
+        <v>39832000</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45670</v>
+        <v>45673</v>
       </c>
       <c r="B233" t="n">
-        <v>233.5299987792969</v>
+        <v>237.3500061035156</v>
       </c>
       <c r="C233" t="n">
-        <v>234.6699981689453</v>
+        <v>238.0099945068359</v>
       </c>
       <c r="D233" t="n">
-        <v>229.7200012207031</v>
+        <v>228.0299987792969</v>
       </c>
       <c r="E233" t="n">
-        <v>234.3999938964844</v>
+        <v>228.2599945068359</v>
       </c>
       <c r="F233" t="n">
-        <v>234.3999938964844</v>
+        <v>228.0093078613281</v>
       </c>
       <c r="G233" t="n">
-        <v>49630700</v>
+        <v>71759100</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B234" t="n">
-        <v>234.75</v>
+        <v>232.1199951171875</v>
       </c>
       <c r="C234" t="n">
-        <v>236.1199951171875</v>
+        <v>232.2899932861328</v>
       </c>
       <c r="D234" t="n">
-        <v>232.4700012207031</v>
+        <v>228.4799957275391</v>
       </c>
       <c r="E234" t="n">
-        <v>233.2799987792969</v>
+        <v>229.9799957275391</v>
       </c>
       <c r="F234" t="n">
-        <v>233.2799987792969</v>
+        <v>229.7274169921875</v>
       </c>
       <c r="G234" t="n">
-        <v>39435300</v>
+        <v>68488300</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45672</v>
+        <v>45678</v>
       </c>
       <c r="B235" t="n">
-        <v>234.6399993896484</v>
+        <v>224</v>
       </c>
       <c r="C235" t="n">
-        <v>238.9600067138672</v>
+        <v>224.4199981689453</v>
       </c>
       <c r="D235" t="n">
-        <v>234.4299926757812</v>
+        <v>219.3800048828125</v>
       </c>
       <c r="E235" t="n">
-        <v>237.8699951171875</v>
+        <v>222.6399993896484</v>
       </c>
       <c r="F235" t="n">
-        <v>237.8699951171875</v>
+        <v>222.3954772949219</v>
       </c>
       <c r="G235" t="n">
-        <v>39832000</v>
+        <v>98070400</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45673</v>
+        <v>45679</v>
       </c>
       <c r="B236" t="n">
-        <v>237.3500061035156</v>
+        <v>219.7899932861328</v>
       </c>
       <c r="C236" t="n">
-        <v>238.0099945068359</v>
+        <v>224.1199951171875</v>
       </c>
       <c r="D236" t="n">
-        <v>228.0299987792969</v>
+        <v>219.7899932861328</v>
       </c>
       <c r="E236" t="n">
-        <v>228.2599945068359</v>
+        <v>223.8300018310547</v>
       </c>
       <c r="F236" t="n">
-        <v>228.2599945068359</v>
+        <v>223.5841674804688</v>
       </c>
       <c r="G236" t="n">
-        <v>71759100</v>
+        <v>64126500</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45674</v>
+        <v>45680</v>
       </c>
       <c r="B237" t="n">
-        <v>232.1199951171875</v>
+        <v>224.7400054931641</v>
       </c>
       <c r="C237" t="n">
-        <v>232.2899932861328</v>
+        <v>227.0299987792969</v>
       </c>
       <c r="D237" t="n">
-        <v>228.4799957275391</v>
+        <v>222.3000030517578</v>
       </c>
       <c r="E237" t="n">
-        <v>229.9799957275391</v>
+        <v>223.6600036621094</v>
       </c>
       <c r="F237" t="n">
-        <v>229.9799957275391</v>
+        <v>223.4143676757812</v>
       </c>
       <c r="G237" t="n">
-        <v>68488300</v>
+        <v>60234800</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45678</v>
+        <v>45681</v>
       </c>
       <c r="B238" t="n">
-        <v>224</v>
+        <v>224.7799987792969</v>
       </c>
       <c r="C238" t="n">
-        <v>224.4199981689453</v>
+        <v>225.6300048828125</v>
       </c>
       <c r="D238" t="n">
-        <v>219.3800048828125</v>
+        <v>221.4100036621094</v>
       </c>
       <c r="E238" t="n">
-        <v>222.6399993896484</v>
+        <v>222.7799987792969</v>
       </c>
       <c r="F238" t="n">
-        <v>222.6399993896484</v>
+        <v>222.5353240966797</v>
       </c>
       <c r="G238" t="n">
-        <v>98070400</v>
+        <v>54697900</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B239" t="n">
-        <v>219.7899932861328</v>
+        <v>224.0200042724609</v>
       </c>
       <c r="C239" t="n">
-        <v>224.1199951171875</v>
+        <v>232.1499938964844</v>
       </c>
       <c r="D239" t="n">
-        <v>219.7899932861328</v>
+        <v>223.9799957275391</v>
       </c>
       <c r="E239" t="n">
-        <v>223.8300018310547</v>
+        <v>229.8600006103516</v>
       </c>
       <c r="F239" t="n">
-        <v>223.8300018310547</v>
+        <v>229.6075439453125</v>
       </c>
       <c r="G239" t="n">
-        <v>64126500</v>
+        <v>94863400</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45680</v>
+        <v>45685</v>
       </c>
       <c r="B240" t="n">
-        <v>224.7400054931641</v>
+        <v>230.8500061035156</v>
       </c>
       <c r="C240" t="n">
-        <v>227.0299987792969</v>
+        <v>240.1900024414062</v>
       </c>
       <c r="D240" t="n">
-        <v>222.3000030517578</v>
+        <v>230.8099975585938</v>
       </c>
       <c r="E240" t="n">
-        <v>223.6600036621094</v>
+        <v>238.2599945068359</v>
       </c>
       <c r="F240" t="n">
-        <v>223.6600036621094</v>
+        <v>237.9983215332031</v>
       </c>
       <c r="G240" t="n">
-        <v>60234800</v>
+        <v>75707600</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45681</v>
+        <v>45686</v>
       </c>
       <c r="B241" t="n">
-        <v>224.7799987792969</v>
+        <v>234.1199951171875</v>
       </c>
       <c r="C241" t="n">
-        <v>225.6300048828125</v>
+        <v>239.8600006103516</v>
       </c>
       <c r="D241" t="n">
-        <v>221.4100036621094</v>
+        <v>234.0099945068359</v>
       </c>
       <c r="E241" t="n">
-        <v>222.7799987792969</v>
+        <v>239.3600006103516</v>
       </c>
       <c r="F241" t="n">
-        <v>222.7799987792969</v>
+        <v>239.0971221923828</v>
       </c>
       <c r="G241" t="n">
-        <v>54697900</v>
+        <v>45486100</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45684</v>
+        <v>45687</v>
       </c>
       <c r="B242" t="n">
-        <v>224.0200042724609</v>
+        <v>238.6699981689453</v>
       </c>
       <c r="C242" t="n">
-        <v>232.1499938964844</v>
+        <v>240.7899932861328</v>
       </c>
       <c r="D242" t="n">
-        <v>223.9799957275391</v>
+        <v>237.2100067138672</v>
       </c>
       <c r="E242" t="n">
-        <v>229.8600006103516</v>
+        <v>237.5899963378906</v>
       </c>
       <c r="F242" t="n">
-        <v>229.8600006103516</v>
+        <v>237.3290557861328</v>
       </c>
       <c r="G242" t="n">
-        <v>94863400</v>
+        <v>55658300</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45685</v>
+        <v>45688</v>
       </c>
       <c r="B243" t="n">
-        <v>230.8500061035156</v>
+        <v>247.1900024414062</v>
       </c>
       <c r="C243" t="n">
-        <v>240.1900024414062</v>
+        <v>247.1900024414062</v>
       </c>
       <c r="D243" t="n">
-        <v>230.8099975585938</v>
+        <v>233.4400024414062</v>
       </c>
       <c r="E243" t="n">
-        <v>238.2599945068359</v>
+        <v>236</v>
       </c>
       <c r="F243" t="n">
-        <v>238.2599945068359</v>
+        <v>235.7408142089844</v>
       </c>
       <c r="G243" t="n">
-        <v>75707600</v>
+        <v>101075100</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45686</v>
+        <v>45691</v>
       </c>
       <c r="B244" t="n">
-        <v>234.1199951171875</v>
+        <v>229.9900054931641</v>
       </c>
       <c r="C244" t="n">
-        <v>239.8600006103516</v>
+        <v>231.8300018310547</v>
       </c>
       <c r="D244" t="n">
-        <v>234.0099945068359</v>
+        <v>225.6999969482422</v>
       </c>
       <c r="E244" t="n">
-        <v>239.3600006103516</v>
+        <v>228.0099945068359</v>
       </c>
       <c r="F244" t="n">
-        <v>239.3600006103516</v>
+        <v>227.7595825195312</v>
       </c>
       <c r="G244" t="n">
-        <v>45486100</v>
+        <v>73063300</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45687</v>
+        <v>45692</v>
       </c>
       <c r="B245" t="n">
-        <v>238.6699981689453</v>
+        <v>227.25</v>
       </c>
       <c r="C245" t="n">
-        <v>240.7899932861328</v>
+        <v>233.1300048828125</v>
       </c>
       <c r="D245" t="n">
-        <v>237.2100067138672</v>
+        <v>226.6499938964844</v>
       </c>
       <c r="E245" t="n">
-        <v>237.5899963378906</v>
+        <v>232.8000030517578</v>
       </c>
       <c r="F245" t="n">
-        <v>237.5899963378906</v>
+        <v>232.5443267822266</v>
       </c>
       <c r="G245" t="n">
-        <v>55658300</v>
+        <v>45067300</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45688</v>
+        <v>45693</v>
       </c>
       <c r="B246" t="n">
-        <v>247.1900024414062</v>
+        <v>228.5299987792969</v>
       </c>
       <c r="C246" t="n">
-        <v>247.1900024414062</v>
+        <v>232.6699981689453</v>
       </c>
       <c r="D246" t="n">
-        <v>233.4400024414062</v>
+        <v>228.2700042724609</v>
       </c>
       <c r="E246" t="n">
-        <v>236</v>
+        <v>232.4700012207031</v>
       </c>
       <c r="F246" t="n">
-        <v>236</v>
+        <v>232.2146911621094</v>
       </c>
       <c r="G246" t="n">
-        <v>101075100</v>
+        <v>39620300</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45691</v>
+        <v>45694</v>
       </c>
       <c r="B247" t="n">
-        <v>229.9900054931641</v>
+        <v>231.2899932861328</v>
       </c>
       <c r="C247" t="n">
-        <v>231.8300018310547</v>
+        <v>233.8000030517578</v>
       </c>
       <c r="D247" t="n">
-        <v>225.6999969482422</v>
+        <v>230.4299926757812</v>
       </c>
       <c r="E247" t="n">
-        <v>228.0099945068359</v>
+        <v>233.2200012207031</v>
       </c>
       <c r="F247" t="n">
-        <v>228.0099945068359</v>
+        <v>232.9638671875</v>
       </c>
       <c r="G247" t="n">
-        <v>73063300</v>
+        <v>29925300</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45692</v>
+        <v>45695</v>
       </c>
       <c r="B248" t="n">
-        <v>227.25</v>
+        <v>232.6000061035156</v>
       </c>
       <c r="C248" t="n">
-        <v>233.1300048828125</v>
+        <v>234</v>
       </c>
       <c r="D248" t="n">
-        <v>226.6499938964844</v>
+        <v>227.2599945068359</v>
       </c>
       <c r="E248" t="n">
-        <v>232.8000030517578</v>
+        <v>227.6300048828125</v>
       </c>
       <c r="F248" t="n">
-        <v>232.8000030517578</v>
+        <v>227.3800048828125</v>
       </c>
       <c r="G248" t="n">
-        <v>45067300</v>
+        <v>39707200</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45693</v>
+        <v>45698</v>
       </c>
       <c r="B249" t="n">
-        <v>228.5299987792969</v>
+        <v>229.5700073242188</v>
       </c>
       <c r="C249" t="n">
-        <v>232.6699981689453</v>
+        <v>230.5899963378906</v>
       </c>
       <c r="D249" t="n">
-        <v>228.2700042724609</v>
+        <v>227.1999969482422</v>
       </c>
       <c r="E249" t="n">
-        <v>232.4700012207031</v>
+        <v>227.6499938964844</v>
       </c>
       <c r="F249" t="n">
-        <v>232.4700012207031</v>
+        <v>227.6499938964844</v>
       </c>
       <c r="G249" t="n">
-        <v>39620300</v>
+        <v>33115600</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B250" t="n">
-        <v>231.2899932861328</v>
+        <v>228.1999969482422</v>
       </c>
       <c r="C250" t="n">
-        <v>233.8000030517578</v>
+        <v>235.2299957275391</v>
       </c>
       <c r="D250" t="n">
-        <v>230.4299926757812</v>
+        <v>228.1300048828125</v>
       </c>
       <c r="E250" t="n">
-        <v>233.2200012207031</v>
+        <v>232.6199951171875</v>
       </c>
       <c r="F250" t="n">
-        <v>233.2200012207031</v>
+        <v>232.6199951171875</v>
       </c>
       <c r="G250" t="n">
-        <v>29925300</v>
+        <v>53718400</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45695</v>
+        <v>45700</v>
       </c>
       <c r="B251" t="n">
-        <v>232.6000061035156</v>
+        <v>231.1999969482422</v>
       </c>
       <c r="C251" t="n">
-        <v>234</v>
+        <v>236.9600067138672</v>
       </c>
       <c r="D251" t="n">
-        <v>227.2599945068359</v>
+        <v>230.6799926757812</v>
       </c>
       <c r="E251" t="n">
-        <v>227.6300048828125</v>
+        <v>236.8699951171875</v>
       </c>
       <c r="F251" t="n">
-        <v>227.6300048828125</v>
+        <v>236.8699951171875</v>
       </c>
       <c r="G251" t="n">
-        <v>39666100</v>
+        <v>45243300</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B252" t="n">
+        <v>236.9100036621094</v>
+      </c>
+      <c r="C252" t="n">
+        <v>242.3399963378906</v>
+      </c>
+      <c r="D252" t="n">
+        <v>235.5700073242188</v>
+      </c>
+      <c r="E252" t="n">
+        <v>241.5299987792969</v>
+      </c>
+      <c r="F252" t="n">
+        <v>241.5299987792969</v>
+      </c>
+      <c r="G252" t="n">
+        <v>53543300</v>
       </c>
     </row>
   </sheetData>
